--- a/molgenis-api-fair/src/main/resources/FDP.xlsx
+++ b/molgenis-api-fair/src/main/resources/FDP.xlsx
@@ -293,7 +293,7 @@
     <t xml:space="preserve">hasMemberRelation</t>
   </si>
   <si>
-    <t xml:space="preserve">the IRI of the relation that contains the </t>
+    <t xml:space="preserve">the IRI of the property that contains the children of the Direct Container associated to the entity</t>
   </si>
   <si>
     <t xml:space="preserve">directContainerTitle</t>
@@ -11226,6 +11226,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="0"/>
       <charset val="1"/>
@@ -11236,12 +11242,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -11404,7 +11404,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11457,19 +11457,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11479,6 +11467,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -11501,11 +11493,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11513,15 +11513,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11533,6 +11529,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11541,7 +11541,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11549,7 +11549,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11557,15 +11557,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11715,9 +11711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>468360</xdr:colOff>
+      <xdr:colOff>468000</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11727,7 +11723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13779720" cy="11942640"/>
+          <a:ext cx="13779360" cy="11942280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11762,11 +11758,11 @@
   <dimension ref="A1:XFD97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="E76" activeCellId="0" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13811,7 +13807,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>76</v>
       </c>
@@ -13838,23 +13834,23 @@
         <v>1</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-    </row>
-    <row r="29" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>76</v>
       </c>
@@ -13878,21 +13874,21 @@
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
@@ -14106,13 +14102,13 @@
       <c r="C35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G35" s="10"/>
@@ -14234,7 +14230,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="16" t="b">
+      <c r="H38" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14351,10 +14347,10 @@
         <v>105</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="18" t="n">
+      <c r="H41" s="15" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -14387,7 +14383,7 @@
       <c r="D42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F42" s="9"/>
@@ -14452,154 +14448,155 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
+    <row r="44" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21" t="n">
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I44" s="22" t="b">
+      <c r="I44" s="20" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-    </row>
-    <row r="45" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19" t="s">
+      <c r="J44" s="18"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21" t="n">
+      <c r="G45" s="18"/>
+      <c r="H45" s="19" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-    </row>
-    <row r="46" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21" t="b">
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21" t="n">
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -14617,27 +14614,27 @@
       <c r="Y47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21" t="n">
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -14655,29 +14652,29 @@
       <c r="Y48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21" t="n">
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -14695,29 +14692,29 @@
       <c r="Y49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21" t="n">
+      <c r="G50" s="18"/>
+      <c r="H50" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -14735,27 +14732,27 @@
       <c r="Y50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20" t="n">
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -14773,29 +14770,29 @@
       <c r="Y51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="23" t="s">
+      <c r="E52" s="22"/>
+      <c r="F52" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21" t="n">
+      <c r="G52" s="18"/>
+      <c r="H52" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -14813,29 +14810,29 @@
       <c r="Y52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="22" t="b">
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="20" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -14853,29 +14850,29 @@
       <c r="Y53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="22" t="b">
+      <c r="G54" s="18"/>
+      <c r="H54" s="23" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -14893,31 +14890,31 @@
       <c r="Y54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G55" s="20"/>
-      <c r="H55" s="22" t="b">
+      <c r="G55" s="18"/>
+      <c r="H55" s="23" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -14935,29 +14932,29 @@
       <c r="Y55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="21" t="n">
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -14975,29 +14972,29 @@
       <c r="Y56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="21" t="n">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -15015,29 +15012,29 @@
       <c r="Y57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="21" t="n">
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -15055,26 +15052,26 @@
       <c r="Y58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20" t="s">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20" t="s">
+      <c r="F59" s="18"/>
+      <c r="G59" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -15092,27 +15089,27 @@
       <c r="Y59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="21" t="n">
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -15130,27 +15127,27 @@
       <c r="Y60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19" t="s">
+      <c r="C61" s="17"/>
+      <c r="D61" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="21" t="n">
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="19" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -15226,7 +15223,7 @@
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
-      <c r="H63" s="29" t="n">
+      <c r="H63" s="27" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15255,23 +15252,23 @@
       <c r="B64" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="27" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -15295,23 +15292,23 @@
       <c r="B65" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F65" s="29"/>
+      <c r="F65" s="27"/>
       <c r="G65" s="26"/>
       <c r="H65" s="27" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -15332,26 +15329,26 @@
       <c r="A66" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="27" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -15375,23 +15372,23 @@
       <c r="B67" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="27" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -15415,25 +15412,25 @@
       <c r="B68" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="F68" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G68" s="29"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="27" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -15457,23 +15454,23 @@
       <c r="B69" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="27" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -15497,23 +15494,23 @@
       <c r="B70" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="27" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -15537,22 +15534,22 @@
       <c r="B71" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29" t="s">
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -15576,22 +15573,22 @@
       <c r="B72" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29" t="s">
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -15615,23 +15612,23 @@
       <c r="B73" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
       <c r="H73" s="27" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -15655,23 +15652,23 @@
       <c r="B74" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
       <c r="H74" s="27" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -15695,18 +15692,18 @@
       <c r="B75" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29" t="s">
+      <c r="C75" s="27"/>
+      <c r="D75" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29" t="s">
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27" t="s">
         <v>106</v>
       </c>
       <c r="H75" s="27"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -15734,7 +15731,7 @@
       <c r="D76" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F76" s="26"/>
@@ -15799,7 +15796,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" s="14" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="32" t="s">
         <v>104</v>
       </c>
@@ -15822,23 +15819,23 @@
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="32"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="36"/>
-    </row>
-    <row r="79" s="14" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+    </row>
+    <row r="79" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="s">
         <v>104</v>
       </c>
@@ -15861,50 +15858,50 @@
         <v>1</v>
       </c>
       <c r="J79" s="33"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37" t="s">
+      <c r="C80" s="36"/>
+      <c r="D80" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="37" t="s">
+      <c r="E80" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="37"/>
-      <c r="G80" s="38" t="b">
+      <c r="F80" s="36"/>
+      <c r="G80" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H80" s="38" t="b">
+      <c r="H80" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I80" s="38" t="b">
+      <c r="I80" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J80" s="38" t="b">
+      <c r="J80" s="37" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15925,27 +15922,27 @@
       <c r="Y80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37" t="s">
+      <c r="C81" s="36"/>
+      <c r="D81" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="37" t="s">
+      <c r="E81" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="38" t="b">
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="37" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -15963,32 +15960,32 @@
       <c r="Y81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D82" s="39" t="s">
+      <c r="D82" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="39" t="s">
+      <c r="E82" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="F82" s="39"/>
-      <c r="G82" s="40" t="b">
+      <c r="F82" s="38"/>
+      <c r="G82" s="39" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H82" s="39" t="b">
+      <c r="H82" s="38" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I82" s="39"/>
-      <c r="J82" s="40" t="n">
+      <c r="I82" s="38"/>
+      <c r="J82" s="39" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16009,29 +16006,29 @@
       <c r="Y82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="39" t="s">
+      <c r="D83" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39" t="b">
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I83" s="39"/>
-      <c r="J83" s="40" t="n">
+      <c r="I83" s="38"/>
+      <c r="J83" s="39" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16052,32 +16049,32 @@
       <c r="Y83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="E84" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39" t="b">
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I84" s="40" t="b">
+      <c r="I84" s="39" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J84" s="40" t="n">
+      <c r="J84" s="39" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16098,27 +16095,27 @@
       <c r="Y84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39" t="s">
+      <c r="C85" s="38"/>
+      <c r="D85" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E85" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="40" t="n">
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="39" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -16136,27 +16133,27 @@
       <c r="Y85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39" t="s">
+      <c r="C86" s="38"/>
+      <c r="D86" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="39" t="s">
+      <c r="E86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="40" t="n">
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="39" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -16174,27 +16171,27 @@
       <c r="Y86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39" t="s">
+      <c r="C87" s="38"/>
+      <c r="D87" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="39" t="s">
+      <c r="E87" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39" t="b">
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -16212,32 +16209,32 @@
       <c r="Y87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="41" t="s">
+      <c r="D88" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="41" t="s">
+      <c r="E88" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F88" s="41"/>
-      <c r="G88" s="42" t="b">
+      <c r="F88" s="40"/>
+      <c r="G88" s="41" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H88" s="41" t="b">
+      <c r="H88" s="40" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I88" s="41"/>
-      <c r="J88" s="42" t="b">
+      <c r="I88" s="40"/>
+      <c r="J88" s="41" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16258,29 +16255,29 @@
       <c r="Y88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="41" t="s">
+      <c r="D89" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="41" t="s">
+      <c r="E89" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="42" t="n">
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="41" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I89" s="41"/>
-      <c r="J89" s="42" t="b">
+      <c r="I89" s="40"/>
+      <c r="J89" s="41" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16301,29 +16298,29 @@
       <c r="Y89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D90" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="41" t="s">
+      <c r="E90" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="42" t="n">
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="41" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I90" s="41"/>
-      <c r="J90" s="42" t="b">
+      <c r="I90" s="40"/>
+      <c r="J90" s="41" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16344,27 +16341,27 @@
       <c r="Y90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41" t="s">
+      <c r="C91" s="40"/>
+      <c r="D91" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="41" t="s">
+      <c r="E91" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="42" t="b">
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="41" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -16382,32 +16379,32 @@
       <c r="Y91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D92" s="41" t="s">
+      <c r="D92" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="41" t="s">
+      <c r="E92" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="42" t="b">
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="41" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I92" s="42" t="b">
+      <c r="I92" s="41" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="J92" s="42" t="b">
+      <c r="J92" s="41" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -16428,27 +16425,27 @@
       <c r="Y92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41" t="s">
+      <c r="C93" s="40"/>
+      <c r="D93" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="41" t="s">
+      <c r="E93" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42" t="b">
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="41" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -16465,154 +16462,154 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" s="43" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="43" t="s">
+    <row r="94" s="42" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="44" t="b">
+      <c r="G94" s="43" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H94" s="44" t="b">
+      <c r="H94" s="43" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I94" s="44" t="b">
+      <c r="I94" s="43" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K94" s="45"/>
-      <c r="L94" s="45"/>
-      <c r="M94" s="45"/>
-      <c r="N94" s="45"/>
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
-      <c r="Q94" s="45"/>
-      <c r="R94" s="45"/>
-      <c r="S94" s="45"/>
-      <c r="T94" s="45"/>
-      <c r="U94" s="45"/>
-      <c r="V94" s="45"/>
-      <c r="W94" s="45"/>
-      <c r="X94" s="45"/>
-      <c r="Y94" s="45"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="44"/>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="44"/>
       <c r="XFC94" s="1"/>
       <c r="XFD94" s="1"/>
     </row>
-    <row r="95" s="43" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="43" t="s">
+    <row r="95" s="42" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H95" s="44" t="b">
+      <c r="H95" s="43" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I95" s="44" t="b">
+      <c r="I95" s="43" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="45"/>
-      <c r="N95" s="45"/>
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
-      <c r="Q95" s="45"/>
-      <c r="R95" s="45"/>
-      <c r="S95" s="45"/>
-      <c r="T95" s="45"/>
-      <c r="U95" s="45"/>
-      <c r="V95" s="45"/>
-      <c r="W95" s="45"/>
-      <c r="X95" s="45"/>
-      <c r="Y95" s="45"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="44"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="44"/>
+      <c r="X95" s="44"/>
+      <c r="Y95" s="44"/>
       <c r="XFC95" s="1"/>
       <c r="XFD95" s="1"/>
     </row>
-    <row r="96" s="46" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="46" t="s">
+    <row r="96" s="45" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="46" t="s">
+      <c r="D96" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G96" s="47" t="b">
+      <c r="G96" s="46" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H96" s="46" t="b">
+      <c r="H96" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="48"/>
-      <c r="N96" s="48"/>
-      <c r="O96" s="48"/>
-      <c r="P96" s="48"/>
-      <c r="Q96" s="48"/>
-      <c r="R96" s="48"/>
-      <c r="S96" s="48"/>
-      <c r="T96" s="48"/>
-      <c r="U96" s="48"/>
-      <c r="V96" s="48"/>
-      <c r="W96" s="48"/>
-      <c r="X96" s="48"/>
-      <c r="Y96" s="48"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="47"/>
+      <c r="N96" s="47"/>
+      <c r="O96" s="47"/>
+      <c r="P96" s="47"/>
+      <c r="Q96" s="47"/>
+      <c r="R96" s="47"/>
+      <c r="S96" s="47"/>
+      <c r="T96" s="47"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="47"/>
+      <c r="W96" s="47"/>
+      <c r="X96" s="47"/>
+      <c r="Y96" s="47"/>
       <c r="XFC96" s="1"/>
       <c r="XFD96" s="1"/>
     </row>
-    <row r="97" s="46" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="46" t="s">
+    <row r="97" s="45" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="46" t="s">
+      <c r="C97" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H97" s="46" t="b">
+      <c r="H97" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I97" s="47" t="b">
+      <c r="I97" s="46" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K97" s="48"/>
-      <c r="L97" s="48"/>
-      <c r="M97" s="48"/>
-      <c r="N97" s="48"/>
-      <c r="O97" s="48"/>
-      <c r="P97" s="48"/>
-      <c r="Q97" s="48"/>
-      <c r="R97" s="48"/>
-      <c r="S97" s="48"/>
-      <c r="T97" s="48"/>
-      <c r="U97" s="48"/>
-      <c r="V97" s="48"/>
-      <c r="W97" s="48"/>
-      <c r="X97" s="48"/>
-      <c r="Y97" s="48"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+      <c r="M97" s="47"/>
+      <c r="N97" s="47"/>
+      <c r="O97" s="47"/>
+      <c r="P97" s="47"/>
+      <c r="Q97" s="47"/>
+      <c r="R97" s="47"/>
+      <c r="S97" s="47"/>
+      <c r="T97" s="47"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="47"/>
+      <c r="W97" s="47"/>
+      <c r="X97" s="47"/>
+      <c r="Y97" s="47"/>
       <c r="XFC97" s="1"/>
       <c r="XFD97" s="1"/>
     </row>
@@ -16670,7 +16667,7 @@
       <c r="B2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -16770,7 +16767,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>214</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -16855,7 +16852,7 @@
       <c r="A2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>217</v>
       </c>
     </row>
@@ -17019,16 +17016,16 @@
       <c r="C6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>238</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>228</v>
       </c>
     </row>
@@ -17318,16 +17315,16 @@
       <c r="C19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="50" t="s">
         <v>252</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="50" t="s">
         <v>253</v>
       </c>
     </row>
@@ -17608,48 +17605,48 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="49" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17672,7 +17669,7 @@
       <c r="F34" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17695,7 +17692,7 @@
       <c r="F35" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17718,7 +17715,7 @@
       <c r="F36" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17741,7 +17738,7 @@
       <c r="F37" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17764,7 +17761,7 @@
       <c r="F38" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17775,7 +17772,7 @@
       <c r="B39" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="49" t="s">
         <v>73</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -17787,7 +17784,7 @@
       <c r="F39" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17798,7 +17795,7 @@
       <c r="B40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="49" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -17810,7 +17807,7 @@
       <c r="F40" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17821,7 +17818,7 @@
       <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="49" t="s">
         <v>61</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -17833,7 +17830,7 @@
       <c r="F41" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17844,7 +17841,7 @@
       <c r="B42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="49" t="s">
         <v>293</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -17856,7 +17853,7 @@
       <c r="F42" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="49" t="s">
         <v>273</v>
       </c>
     </row>
@@ -18077,7 +18074,7 @@
       <c r="C52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="50" t="s">
         <v>321</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -18123,7 +18120,7 @@
       <c r="C54" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="50" t="s">
         <v>327</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -18132,7 +18129,7 @@
       <c r="F54" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="50" t="s">
         <v>328</v>
       </c>
     </row>
@@ -18146,7 +18143,7 @@
       <c r="C55" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="50" t="s">
         <v>331</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -18155,15 +18152,15 @@
       <c r="F55" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G55" s="50" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="51" t="s">
         <v>333</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -18172,10 +18169,10 @@
       <c r="D56" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F56" s="52" t="s">
+      <c r="F56" s="51" t="s">
         <v>227</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -19200,10 +19197,10 @@
       <c r="AMJ56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="51" t="s">
         <v>337</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -19212,10 +19209,10 @@
       <c r="D57" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F57" s="52" t="s">
+      <c r="F57" s="51" t="s">
         <v>227</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -20240,10 +20237,10 @@
       <c r="AMJ57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="51" t="s">
         <v>81</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -20252,10 +20249,10 @@
       <c r="D58" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="51" t="s">
         <v>227</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -21280,22 +21277,22 @@
       <c r="AMJ58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="51" t="s">
         <v>343</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F59" s="52" t="s">
+      <c r="F59" s="51" t="s">
         <v>227</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -22368,7 +22365,7 @@
       <c r="A1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>11</v>
       </c>
     </row>
@@ -22376,7 +22373,7 @@
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>345</v>
       </c>
     </row>
@@ -22384,7 +22381,7 @@
       <c r="A3" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22392,7 +22389,7 @@
       <c r="A4" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>253</v>
       </c>
     </row>
@@ -22400,7 +22397,7 @@
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>346</v>
       </c>
     </row>
@@ -22408,7 +22405,7 @@
       <c r="A6" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>297</v>
       </c>
     </row>
@@ -22416,7 +22413,7 @@
       <c r="A7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>301</v>
       </c>
     </row>
@@ -22424,7 +22421,7 @@
       <c r="A8" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>348</v>
       </c>
     </row>
@@ -22432,7 +22429,7 @@
       <c r="A9" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>336</v>
       </c>
     </row>
@@ -22440,7 +22437,7 @@
       <c r="A10" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>307</v>
       </c>
     </row>
@@ -22448,7 +22445,7 @@
       <c r="A11" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>315</v>
       </c>
     </row>
@@ -22456,7 +22453,7 @@
       <c r="A12" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>351</v>
       </c>
     </row>
@@ -22464,7 +22461,7 @@
       <c r="A13" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>353</v>
       </c>
     </row>
@@ -22472,7 +22469,7 @@
       <c r="A14" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>355</v>
       </c>
     </row>
@@ -22480,7 +22477,7 @@
       <c r="A15" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>319</v>
       </c>
     </row>
@@ -22488,7 +22485,7 @@
       <c r="A16" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>357</v>
       </c>
     </row>
@@ -22563,7 +22560,7 @@
       <c r="B2" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>360</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -22580,7 +22577,7 @@
       <c r="B3" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>365</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -22594,7 +22591,7 @@
       <c r="B4" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
         <v>369</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -22608,7 +22605,7 @@
       <c r="B5" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>373</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -22622,7 +22619,7 @@
       <c r="B6" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>377</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -22636,7 +22633,7 @@
       <c r="B7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>381</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -22650,7 +22647,7 @@
       <c r="B8" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="54" t="s">
         <v>385</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -22664,7 +22661,7 @@
       <c r="B9" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>389</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -22681,7 +22678,7 @@
       <c r="B10" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>394</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -22695,7 +22692,7 @@
       <c r="B11" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>398</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -22712,7 +22709,7 @@
       <c r="B12" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>403</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -22726,7 +22723,7 @@
       <c r="B13" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>407</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -22746,7 +22743,7 @@
       <c r="C14" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="54" t="s">
         <v>413</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -22760,7 +22757,7 @@
       <c r="B15" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>417</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -22774,7 +22771,7 @@
       <c r="B16" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>421</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -22788,7 +22785,7 @@
       <c r="B17" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>425</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -22805,7 +22802,7 @@
       <c r="B18" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="54" t="s">
         <v>430</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -22819,7 +22816,7 @@
       <c r="B19" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>434</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -22833,7 +22830,7 @@
       <c r="B20" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>438</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -22847,7 +22844,7 @@
       <c r="B21" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="54" t="s">
         <v>442</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -22864,7 +22861,7 @@
       <c r="B22" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="54" t="s">
         <v>447</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -22878,7 +22875,7 @@
       <c r="B23" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>451</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -22895,7 +22892,7 @@
       <c r="B24" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>456</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -22915,7 +22912,7 @@
       <c r="C25" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>462</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -22929,7 +22926,7 @@
       <c r="B26" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>466</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -22943,7 +22940,7 @@
       <c r="B27" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="54" t="s">
         <v>470</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -22957,7 +22954,7 @@
       <c r="B28" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="54" t="s">
         <v>474</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -22971,7 +22968,7 @@
       <c r="B29" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="54" t="s">
         <v>478</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -22988,7 +22985,7 @@
       <c r="B30" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="54" t="s">
         <v>483</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -23002,7 +22999,7 @@
       <c r="B31" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="54" t="s">
         <v>487</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -23016,7 +23013,7 @@
       <c r="B32" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="54" t="s">
         <v>491</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -23030,7 +23027,7 @@
       <c r="B33" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="54" t="s">
         <v>495</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -23047,7 +23044,7 @@
       <c r="B34" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="54" t="s">
         <v>500</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -23064,7 +23061,7 @@
       <c r="B35" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="54" t="s">
         <v>505</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -23078,7 +23075,7 @@
       <c r="B36" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="54" t="s">
         <v>509</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -23095,7 +23092,7 @@
       <c r="B37" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="54" t="s">
         <v>514</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -23112,7 +23109,7 @@
       <c r="B38" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="54" t="s">
         <v>519</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -23126,7 +23123,7 @@
       <c r="B39" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="54" t="s">
         <v>523</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -23140,7 +23137,7 @@
       <c r="B40" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="54" t="s">
         <v>527</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -23157,7 +23154,7 @@
       <c r="B41" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="54" t="s">
         <v>532</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -23171,7 +23168,7 @@
       <c r="B42" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="54" t="s">
         <v>536</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -23188,7 +23185,7 @@
       <c r="B43" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="54" t="s">
         <v>541</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -23202,7 +23199,7 @@
       <c r="B44" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="54" t="s">
         <v>545</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -23222,7 +23219,7 @@
       <c r="C45" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="54" t="s">
         <v>551</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -23236,7 +23233,7 @@
       <c r="B46" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="54" t="s">
         <v>555</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -23250,7 +23247,7 @@
       <c r="B47" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="54" t="s">
         <v>559</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -23264,7 +23261,7 @@
       <c r="B48" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="54" t="s">
         <v>563</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -23281,7 +23278,7 @@
       <c r="B49" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="54" t="s">
         <v>568</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -23295,7 +23292,7 @@
       <c r="B50" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="54" t="s">
         <v>572</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -23312,7 +23309,7 @@
       <c r="B51" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="54" t="s">
         <v>577</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -23326,7 +23323,7 @@
       <c r="B52" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="54" t="s">
         <v>581</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -23340,7 +23337,7 @@
       <c r="B53" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="54" t="s">
         <v>585</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -23357,7 +23354,7 @@
       <c r="B54" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="54" t="s">
         <v>590</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -23371,7 +23368,7 @@
       <c r="B55" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="54" t="s">
         <v>594</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -23385,7 +23382,7 @@
       <c r="B56" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="54" t="s">
         <v>598</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -23402,7 +23399,7 @@
       <c r="B57" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="54" t="s">
         <v>603</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -23416,7 +23413,7 @@
       <c r="B58" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="54" t="s">
         <v>607</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -23430,7 +23427,7 @@
       <c r="B59" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="54" t="s">
         <v>611</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -23447,7 +23444,7 @@
       <c r="B60" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="54" t="s">
         <v>616</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -23461,7 +23458,7 @@
       <c r="B61" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="54" t="s">
         <v>620</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -23478,7 +23475,7 @@
       <c r="B62" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="54" t="s">
         <v>625</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -23492,7 +23489,7 @@
       <c r="B63" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="54" t="s">
         <v>629</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -23506,7 +23503,7 @@
       <c r="B64" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="54" t="s">
         <v>633</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -23520,7 +23517,7 @@
       <c r="B65" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="54" t="s">
         <v>637</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -23537,7 +23534,7 @@
       <c r="B66" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="54" t="s">
         <v>642</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -23557,7 +23554,7 @@
       <c r="C67" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="54" t="s">
         <v>648</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -23571,7 +23568,7 @@
       <c r="B68" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="54" t="s">
         <v>652</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -23585,7 +23582,7 @@
       <c r="B69" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="54" t="s">
         <v>656</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -23599,7 +23596,7 @@
       <c r="B70" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="54" t="s">
         <v>660</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -23613,7 +23610,7 @@
       <c r="B71" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D71" s="55" t="s">
+      <c r="D71" s="54" t="s">
         <v>664</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -23630,7 +23627,7 @@
       <c r="B72" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D72" s="55" t="s">
+      <c r="D72" s="54" t="s">
         <v>669</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -23644,7 +23641,7 @@
       <c r="B73" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="54" t="s">
         <v>673</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -23658,7 +23655,7 @@
       <c r="B74" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D74" s="55" t="s">
+      <c r="D74" s="54" t="s">
         <v>677</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -23672,7 +23669,7 @@
       <c r="B75" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D75" s="55" t="s">
+      <c r="D75" s="54" t="s">
         <v>681</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -23689,7 +23686,7 @@
       <c r="B76" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="D76" s="55" t="s">
+      <c r="D76" s="54" t="s">
         <v>686</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -23703,7 +23700,7 @@
       <c r="B77" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="54" t="s">
         <v>690</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -23720,7 +23717,7 @@
       <c r="B78" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D78" s="54" t="s">
         <v>695</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -23734,7 +23731,7 @@
       <c r="B79" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D79" s="55" t="s">
+      <c r="D79" s="54" t="s">
         <v>699</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -23754,7 +23751,7 @@
       <c r="C80" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D80" s="55" t="s">
+      <c r="D80" s="54" t="s">
         <v>705</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -23768,7 +23765,7 @@
       <c r="B81" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D81" s="55" t="s">
+      <c r="D81" s="54" t="s">
         <v>709</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -23782,7 +23779,7 @@
       <c r="B82" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D82" s="54" t="s">
         <v>713</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -23796,7 +23793,7 @@
       <c r="B83" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="54" t="s">
         <v>717</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -23810,7 +23807,7 @@
       <c r="B84" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D84" s="55" t="s">
+      <c r="D84" s="54" t="s">
         <v>721</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -23824,7 +23821,7 @@
       <c r="B85" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D85" s="55" t="s">
+      <c r="D85" s="54" t="s">
         <v>725</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -23838,7 +23835,7 @@
       <c r="B86" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="D86" s="55" t="s">
+      <c r="D86" s="54" t="s">
         <v>729</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -23855,7 +23852,7 @@
       <c r="B87" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D87" s="55" t="s">
+      <c r="D87" s="54" t="s">
         <v>734</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -23872,7 +23869,7 @@
       <c r="B88" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D88" s="55" t="s">
+      <c r="D88" s="54" t="s">
         <v>739</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -23886,7 +23883,7 @@
       <c r="B89" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D89" s="55" t="s">
+      <c r="D89" s="54" t="s">
         <v>743</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -23900,7 +23897,7 @@
       <c r="B90" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="D90" s="54" t="s">
         <v>747</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -23914,7 +23911,7 @@
       <c r="B91" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D91" s="55" t="s">
+      <c r="D91" s="54" t="s">
         <v>751</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -23931,7 +23928,7 @@
       <c r="B92" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="D92" s="55" t="s">
+      <c r="D92" s="54" t="s">
         <v>756</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -23948,7 +23945,7 @@
       <c r="B93" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="D93" s="55" t="s">
+      <c r="D93" s="54" t="s">
         <v>761</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -23962,7 +23959,7 @@
       <c r="B94" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D94" s="55" t="s">
+      <c r="D94" s="54" t="s">
         <v>765</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -23976,7 +23973,7 @@
       <c r="B95" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D95" s="55" t="s">
+      <c r="D95" s="54" t="s">
         <v>769</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -23990,7 +23987,7 @@
       <c r="B96" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D96" s="55" t="s">
+      <c r="D96" s="54" t="s">
         <v>773</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -24007,7 +24004,7 @@
       <c r="B97" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D97" s="55" t="s">
+      <c r="D97" s="54" t="s">
         <v>778</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -24021,7 +24018,7 @@
       <c r="B98" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="D98" s="55" t="s">
+      <c r="D98" s="54" t="s">
         <v>782</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -24035,7 +24032,7 @@
       <c r="B99" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D99" s="55" t="s">
+      <c r="D99" s="54" t="s">
         <v>786</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -24049,7 +24046,7 @@
       <c r="B100" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="D100" s="55" t="s">
+      <c r="D100" s="54" t="s">
         <v>790</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -24063,7 +24060,7 @@
       <c r="B101" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D101" s="55" t="s">
+      <c r="D101" s="54" t="s">
         <v>794</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -24083,7 +24080,7 @@
       <c r="C102" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D102" s="55" t="s">
+      <c r="D102" s="54" t="s">
         <v>800</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -24097,7 +24094,7 @@
       <c r="B103" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D103" s="55" t="s">
+      <c r="D103" s="54" t="s">
         <v>804</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -24114,7 +24111,7 @@
       <c r="B104" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D104" s="55" t="s">
+      <c r="D104" s="54" t="s">
         <v>809</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -24128,7 +24125,7 @@
       <c r="B105" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D105" s="55" t="s">
+      <c r="D105" s="54" t="s">
         <v>813</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -24142,7 +24139,7 @@
       <c r="B106" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="D106" s="55" t="s">
+      <c r="D106" s="54" t="s">
         <v>817</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -24156,7 +24153,7 @@
       <c r="B107" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D107" s="55" t="s">
+      <c r="D107" s="54" t="s">
         <v>821</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -24170,7 +24167,7 @@
       <c r="B108" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D108" s="55" t="s">
+      <c r="D108" s="54" t="s">
         <v>825</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -24184,7 +24181,7 @@
       <c r="B109" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="D109" s="55" t="s">
+      <c r="D109" s="54" t="s">
         <v>829</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -24198,7 +24195,7 @@
       <c r="B110" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="D110" s="55" t="s">
+      <c r="D110" s="54" t="s">
         <v>833</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -24215,7 +24212,7 @@
       <c r="B111" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="D111" s="55" t="s">
+      <c r="D111" s="54" t="s">
         <v>838</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -24229,7 +24226,7 @@
       <c r="B112" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="D112" s="55" t="s">
+      <c r="D112" s="54" t="s">
         <v>842</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -24243,7 +24240,7 @@
       <c r="B113" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D113" s="55" t="s">
+      <c r="D113" s="54" t="s">
         <v>846</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -24257,7 +24254,7 @@
       <c r="B114" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="D114" s="55" t="s">
+      <c r="D114" s="54" t="s">
         <v>850</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -24271,7 +24268,7 @@
       <c r="B115" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D115" s="55" t="s">
+      <c r="D115" s="54" t="s">
         <v>854</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -24285,7 +24282,7 @@
       <c r="B116" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D116" s="55" t="s">
+      <c r="D116" s="54" t="s">
         <v>858</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -24305,7 +24302,7 @@
       <c r="C117" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D117" s="55" t="s">
+      <c r="D117" s="54" t="s">
         <v>864</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -24319,7 +24316,7 @@
       <c r="B118" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D118" s="55" t="s">
+      <c r="D118" s="54" t="s">
         <v>868</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -24336,7 +24333,7 @@
       <c r="B119" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D119" s="55" t="s">
+      <c r="D119" s="54" t="s">
         <v>873</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -24350,7 +24347,7 @@
       <c r="B120" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D120" s="55" t="s">
+      <c r="D120" s="54" t="s">
         <v>877</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -24364,7 +24361,7 @@
       <c r="B121" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="D121" s="55" t="s">
+      <c r="D121" s="54" t="s">
         <v>881</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -24378,7 +24375,7 @@
       <c r="B122" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D122" s="55" t="s">
+      <c r="D122" s="54" t="s">
         <v>885</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -24392,7 +24389,7 @@
       <c r="B123" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D123" s="55" t="s">
+      <c r="D123" s="54" t="s">
         <v>889</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -24409,7 +24406,7 @@
       <c r="B124" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D124" s="55" t="s">
+      <c r="D124" s="54" t="s">
         <v>894</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -24423,7 +24420,7 @@
       <c r="B125" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="D125" s="55" t="s">
+      <c r="D125" s="54" t="s">
         <v>898</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -24440,7 +24437,7 @@
       <c r="B126" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D126" s="55" t="s">
+      <c r="D126" s="54" t="s">
         <v>903</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -24457,7 +24454,7 @@
       <c r="B127" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D127" s="55" t="s">
+      <c r="D127" s="54" t="s">
         <v>908</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -24474,7 +24471,7 @@
       <c r="B128" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D128" s="55" t="s">
+      <c r="D128" s="54" t="s">
         <v>913</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -24488,7 +24485,7 @@
       <c r="B129" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D129" s="55" t="s">
+      <c r="D129" s="54" t="s">
         <v>917</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -24502,7 +24499,7 @@
       <c r="B130" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D130" s="55" t="s">
+      <c r="D130" s="54" t="s">
         <v>921</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -24519,7 +24516,7 @@
       <c r="B131" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="D131" s="55" t="s">
+      <c r="D131" s="54" t="s">
         <v>926</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -24533,7 +24530,7 @@
       <c r="B132" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="D132" s="55" t="s">
+      <c r="D132" s="54" t="s">
         <v>930</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -24550,7 +24547,7 @@
       <c r="B133" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="D133" s="55" t="s">
+      <c r="D133" s="54" t="s">
         <v>935</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -24564,7 +24561,7 @@
       <c r="B134" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="D134" s="55" t="s">
+      <c r="D134" s="54" t="s">
         <v>939</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -24581,7 +24578,7 @@
       <c r="B135" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D135" s="55" t="s">
+      <c r="D135" s="54" t="s">
         <v>944</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -24595,7 +24592,7 @@
       <c r="B136" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D136" s="55" t="s">
+      <c r="D136" s="54" t="s">
         <v>948</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -24609,7 +24606,7 @@
       <c r="B137" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D137" s="55" t="s">
+      <c r="D137" s="54" t="s">
         <v>952</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -24629,7 +24626,7 @@
       <c r="C138" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="D138" s="55" t="s">
+      <c r="D138" s="54" t="s">
         <v>957</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -24643,7 +24640,7 @@
       <c r="B139" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="D139" s="55" t="s">
+      <c r="D139" s="54" t="s">
         <v>961</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -24657,7 +24654,7 @@
       <c r="B140" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="D140" s="55" t="s">
+      <c r="D140" s="54" t="s">
         <v>965</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -24671,7 +24668,7 @@
       <c r="B141" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="D141" s="55" t="s">
+      <c r="D141" s="54" t="s">
         <v>969</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -24685,7 +24682,7 @@
       <c r="B142" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="D142" s="55" t="s">
+      <c r="D142" s="54" t="s">
         <v>973</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -24702,7 +24699,7 @@
       <c r="B143" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D143" s="55" t="s">
+      <c r="D143" s="54" t="s">
         <v>978</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -24719,7 +24716,7 @@
       <c r="B144" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D144" s="55" t="s">
+      <c r="D144" s="54" t="s">
         <v>983</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -24733,7 +24730,7 @@
       <c r="B145" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="D145" s="55" t="s">
+      <c r="D145" s="54" t="s">
         <v>987</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -24747,7 +24744,7 @@
       <c r="B146" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D146" s="55" t="s">
+      <c r="D146" s="54" t="s">
         <v>991</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -24761,7 +24758,7 @@
       <c r="B147" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="D147" s="55" t="s">
+      <c r="D147" s="54" t="s">
         <v>995</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -24775,7 +24772,7 @@
       <c r="B148" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="D148" s="55" t="s">
+      <c r="D148" s="54" t="s">
         <v>999</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -24789,7 +24786,7 @@
       <c r="B149" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="D149" s="55" t="s">
+      <c r="D149" s="54" t="s">
         <v>1003</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -24809,7 +24806,7 @@
       <c r="C150" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D150" s="55" t="s">
+      <c r="D150" s="54" t="s">
         <v>1009</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -24829,7 +24826,7 @@
       <c r="C151" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="D151" s="55" t="s">
+      <c r="D151" s="54" t="s">
         <v>1015</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -24843,7 +24840,7 @@
       <c r="B152" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D152" s="55" t="s">
+      <c r="D152" s="54" t="s">
         <v>1019</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -24857,7 +24854,7 @@
       <c r="B153" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D153" s="55" t="s">
+      <c r="D153" s="54" t="s">
         <v>1023</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -24874,7 +24871,7 @@
       <c r="B154" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="D154" s="55" t="s">
+      <c r="D154" s="54" t="s">
         <v>1028</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -24891,7 +24888,7 @@
       <c r="B155" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="D155" s="55" t="s">
+      <c r="D155" s="54" t="s">
         <v>1032</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -24908,7 +24905,7 @@
       <c r="B156" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="D156" s="55" t="s">
+      <c r="D156" s="54" t="s">
         <v>1037</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -24925,7 +24922,7 @@
       <c r="B157" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D157" s="55" t="s">
+      <c r="D157" s="54" t="s">
         <v>1042</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -24939,7 +24936,7 @@
       <c r="B158" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="D158" s="55" t="s">
+      <c r="D158" s="54" t="s">
         <v>1046</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -24953,7 +24950,7 @@
       <c r="B159" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="D159" s="55" t="s">
+      <c r="D159" s="54" t="s">
         <v>1050</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -24967,7 +24964,7 @@
       <c r="B160" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="D160" s="55" t="s">
+      <c r="D160" s="54" t="s">
         <v>1054</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -24981,7 +24978,7 @@
       <c r="B161" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="D161" s="55" t="s">
+      <c r="D161" s="54" t="s">
         <v>1058</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -24995,7 +24992,7 @@
       <c r="B162" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="D162" s="55" t="s">
+      <c r="D162" s="54" t="s">
         <v>1062</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -25009,7 +25006,7 @@
       <c r="B163" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D163" s="55" t="s">
+      <c r="D163" s="54" t="s">
         <v>1066</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -25023,7 +25020,7 @@
       <c r="B164" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="D164" s="55" t="s">
+      <c r="D164" s="54" t="s">
         <v>1070</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -25043,7 +25040,7 @@
       <c r="C165" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="D165" s="55" t="s">
+      <c r="D165" s="54" t="s">
         <v>1076</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -25060,7 +25057,7 @@
       <c r="B166" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="D166" s="55" t="s">
+      <c r="D166" s="54" t="s">
         <v>1081</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -25074,7 +25071,7 @@
       <c r="B167" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="D167" s="55" t="s">
+      <c r="D167" s="54" t="s">
         <v>1085</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -25091,7 +25088,7 @@
       <c r="B168" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D168" s="55" t="s">
+      <c r="D168" s="54" t="s">
         <v>1090</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -25105,7 +25102,7 @@
       <c r="B169" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="D169" s="55" t="s">
+      <c r="D169" s="54" t="s">
         <v>1094</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -25119,7 +25116,7 @@
       <c r="B170" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D170" s="55" t="s">
+      <c r="D170" s="54" t="s">
         <v>1098</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -25136,7 +25133,7 @@
       <c r="B171" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="D171" s="55" t="s">
+      <c r="D171" s="54" t="s">
         <v>1103</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -25153,7 +25150,7 @@
       <c r="B172" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="D172" s="55" t="s">
+      <c r="D172" s="54" t="s">
         <v>1108</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -25167,7 +25164,7 @@
       <c r="B173" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="D173" s="55" t="s">
+      <c r="D173" s="54" t="s">
         <v>1112</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -25184,7 +25181,7 @@
       <c r="B174" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="D174" s="55" t="s">
+      <c r="D174" s="54" t="s">
         <v>1117</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -25201,7 +25198,7 @@
       <c r="B175" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="D175" s="55" t="s">
+      <c r="D175" s="54" t="s">
         <v>1122</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -25215,7 +25212,7 @@
       <c r="B176" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="D176" s="55" t="s">
+      <c r="D176" s="54" t="s">
         <v>1126</v>
       </c>
       <c r="E176" s="1" t="s">
@@ -25229,7 +25226,7 @@
       <c r="B177" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="D177" s="55" t="s">
+      <c r="D177" s="54" t="s">
         <v>1130</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -25246,7 +25243,7 @@
       <c r="B178" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D178" s="55" t="s">
+      <c r="D178" s="54" t="s">
         <v>1135</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -25260,7 +25257,7 @@
       <c r="B179" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="D179" s="55" t="s">
+      <c r="D179" s="54" t="s">
         <v>1139</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -25274,7 +25271,7 @@
       <c r="B180" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="D180" s="55" t="s">
+      <c r="D180" s="54" t="s">
         <v>1143</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -25291,7 +25288,7 @@
       <c r="B181" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="D181" s="55" t="s">
+      <c r="D181" s="54" t="s">
         <v>1148</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -25308,7 +25305,7 @@
       <c r="B182" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="D182" s="55" t="s">
+      <c r="D182" s="54" t="s">
         <v>1153</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -25322,7 +25319,7 @@
       <c r="B183" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="D183" s="55" t="s">
+      <c r="D183" s="54" t="s">
         <v>1157</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -25339,7 +25336,7 @@
       <c r="B184" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D184" s="55" t="s">
+      <c r="D184" s="54" t="s">
         <v>1162</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -25353,7 +25350,7 @@
       <c r="B185" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="D185" s="55" t="s">
+      <c r="D185" s="54" t="s">
         <v>1166</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -25367,7 +25364,7 @@
       <c r="B186" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="D186" s="55" t="s">
+      <c r="D186" s="54" t="s">
         <v>1170</v>
       </c>
       <c r="E186" s="1" t="s">
@@ -25384,7 +25381,7 @@
       <c r="B187" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D187" s="55" t="s">
+      <c r="D187" s="54" t="s">
         <v>1175</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -25404,7 +25401,7 @@
       <c r="C188" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="D188" s="55" t="s">
+      <c r="D188" s="54" t="s">
         <v>1181</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -25421,7 +25418,7 @@
       <c r="B189" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="D189" s="55" t="s">
+      <c r="D189" s="54" t="s">
         <v>1186</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -25438,7 +25435,7 @@
       <c r="B190" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="D190" s="55" t="s">
+      <c r="D190" s="54" t="s">
         <v>1190</v>
       </c>
       <c r="E190" s="1" t="s">
@@ -25452,7 +25449,7 @@
       <c r="B191" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="D191" s="55" t="s">
+      <c r="D191" s="54" t="s">
         <v>1194</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -25469,7 +25466,7 @@
       <c r="B192" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="D192" s="55" t="s">
+      <c r="D192" s="54" t="s">
         <v>1199</v>
       </c>
       <c r="E192" s="1" t="s">
@@ -25486,7 +25483,7 @@
       <c r="B193" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="D193" s="55" t="s">
+      <c r="D193" s="54" t="s">
         <v>1204</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -25500,7 +25497,7 @@
       <c r="B194" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="D194" s="55" t="s">
+      <c r="D194" s="54" t="s">
         <v>1208</v>
       </c>
       <c r="E194" s="1" t="s">
@@ -25517,7 +25514,7 @@
       <c r="B195" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="D195" s="55" t="s">
+      <c r="D195" s="54" t="s">
         <v>1213</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -25531,7 +25528,7 @@
       <c r="B196" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D196" s="55" t="s">
+      <c r="D196" s="54" t="s">
         <v>1217</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -25548,7 +25545,7 @@
       <c r="B197" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="D197" s="55" t="s">
+      <c r="D197" s="54" t="s">
         <v>1221</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -25562,7 +25559,7 @@
       <c r="B198" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="D198" s="55" t="s">
+      <c r="D198" s="54" t="s">
         <v>1225</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -25576,7 +25573,7 @@
       <c r="B199" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="D199" s="55" t="s">
+      <c r="D199" s="54" t="s">
         <v>1229</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -25593,7 +25590,7 @@
       <c r="B200" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D200" s="55" t="s">
+      <c r="D200" s="54" t="s">
         <v>1234</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -25607,7 +25604,7 @@
       <c r="B201" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="D201" s="55" t="s">
+      <c r="D201" s="54" t="s">
         <v>1238</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -25621,7 +25618,7 @@
       <c r="B202" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="D202" s="55" t="s">
+      <c r="D202" s="54" t="s">
         <v>1242</v>
       </c>
       <c r="E202" s="1" t="s">
@@ -25638,7 +25635,7 @@
       <c r="B203" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="D203" s="55" t="s">
+      <c r="D203" s="54" t="s">
         <v>1247</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -25655,7 +25652,7 @@
       <c r="B204" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="D204" s="55" t="s">
+      <c r="D204" s="54" t="s">
         <v>1252</v>
       </c>
       <c r="E204" s="1" t="s">
@@ -25669,7 +25666,7 @@
       <c r="B205" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="D205" s="55" t="s">
+      <c r="D205" s="54" t="s">
         <v>1256</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -25686,7 +25683,7 @@
       <c r="B206" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="D206" s="55" t="s">
+      <c r="D206" s="54" t="s">
         <v>1261</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -25700,7 +25697,7 @@
       <c r="B207" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D207" s="55" t="s">
+      <c r="D207" s="54" t="s">
         <v>1265</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -25714,7 +25711,7 @@
       <c r="B208" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="D208" s="55" t="s">
+      <c r="D208" s="54" t="s">
         <v>1269</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -25728,7 +25725,7 @@
       <c r="B209" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="D209" s="55" t="s">
+      <c r="D209" s="54" t="s">
         <v>1273</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -25742,7 +25739,7 @@
       <c r="B210" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="D210" s="55" t="s">
+      <c r="D210" s="54" t="s">
         <v>1277</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -25756,7 +25753,7 @@
       <c r="B211" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="D211" s="55" t="s">
+      <c r="D211" s="54" t="s">
         <v>1281</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -25773,7 +25770,7 @@
       <c r="B212" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="D212" s="55" t="s">
+      <c r="D212" s="54" t="s">
         <v>1286</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -25787,7 +25784,7 @@
       <c r="B213" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="D213" s="55" t="s">
+      <c r="D213" s="54" t="s">
         <v>1290</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -25804,7 +25801,7 @@
       <c r="B214" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="D214" s="55" t="s">
+      <c r="D214" s="54" t="s">
         <v>1295</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -25818,7 +25815,7 @@
       <c r="B215" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="D215" s="55" t="s">
+      <c r="D215" s="54" t="s">
         <v>1299</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -25835,7 +25832,7 @@
       <c r="B216" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="D216" s="55" t="s">
+      <c r="D216" s="54" t="s">
         <v>1304</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -25852,7 +25849,7 @@
       <c r="B217" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="D217" s="55" t="s">
+      <c r="D217" s="54" t="s">
         <v>1309</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -25866,7 +25863,7 @@
       <c r="B218" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="D218" s="55" t="s">
+      <c r="D218" s="54" t="s">
         <v>1313</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -25883,7 +25880,7 @@
       <c r="B219" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="D219" s="55" t="s">
+      <c r="D219" s="54" t="s">
         <v>1318</v>
       </c>
       <c r="E219" s="1" t="s">
@@ -25897,7 +25894,7 @@
       <c r="B220" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="D220" s="55" t="s">
+      <c r="D220" s="54" t="s">
         <v>1322</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -25911,7 +25908,7 @@
       <c r="B221" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="D221" s="55" t="s">
+      <c r="D221" s="54" t="s">
         <v>1326</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -25925,7 +25922,7 @@
       <c r="B222" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D222" s="55" t="s">
+      <c r="D222" s="54" t="s">
         <v>1330</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -25942,7 +25939,7 @@
       <c r="B223" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="D223" s="55" t="s">
+      <c r="D223" s="54" t="s">
         <v>1335</v>
       </c>
       <c r="E223" s="1" t="s">
@@ -25956,7 +25953,7 @@
       <c r="B224" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="D224" s="55" t="s">
+      <c r="D224" s="54" t="s">
         <v>1339</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -25973,7 +25970,7 @@
       <c r="B225" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="D225" s="55" t="s">
+      <c r="D225" s="54" t="s">
         <v>1344</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -25990,7 +25987,7 @@
       <c r="B226" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="D226" s="55" t="s">
+      <c r="D226" s="54" t="s">
         <v>1349</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -26007,7 +26004,7 @@
       <c r="B227" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="D227" s="55" t="s">
+      <c r="D227" s="54" t="s">
         <v>1354</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -26021,7 +26018,7 @@
       <c r="B228" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="D228" s="55" t="s">
+      <c r="D228" s="54" t="s">
         <v>1358</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -26035,7 +26032,7 @@
       <c r="B229" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="D229" s="55" t="s">
+      <c r="D229" s="54" t="s">
         <v>1362</v>
       </c>
       <c r="E229" s="1" t="s">
@@ -26052,7 +26049,7 @@
       <c r="B230" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="D230" s="55" t="s">
+      <c r="D230" s="54" t="s">
         <v>1367</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -26069,7 +26066,7 @@
       <c r="B231" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D231" s="55" t="s">
+      <c r="D231" s="54" t="s">
         <v>1371</v>
       </c>
       <c r="E231" s="1" t="s">
@@ -26086,7 +26083,7 @@
       <c r="B232" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="D232" s="55" t="s">
+      <c r="D232" s="54" t="s">
         <v>1376</v>
       </c>
       <c r="E232" s="1" t="s">
@@ -26100,7 +26097,7 @@
       <c r="B233" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="D233" s="55" t="s">
+      <c r="D233" s="54" t="s">
         <v>1380</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -26114,7 +26111,7 @@
       <c r="B234" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="D234" s="55" t="s">
+      <c r="D234" s="54" t="s">
         <v>1384</v>
       </c>
       <c r="E234" s="1" t="s">
@@ -26128,7 +26125,7 @@
       <c r="B235" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="D235" s="55" t="s">
+      <c r="D235" s="54" t="s">
         <v>1388</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -26142,7 +26139,7 @@
       <c r="B236" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="D236" s="55" t="s">
+      <c r="D236" s="54" t="s">
         <v>1392</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -26156,7 +26153,7 @@
       <c r="B237" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="D237" s="55" t="s">
+      <c r="D237" s="54" t="s">
         <v>1396</v>
       </c>
       <c r="E237" s="1" t="s">
@@ -26170,7 +26167,7 @@
       <c r="B238" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="D238" s="55" t="s">
+      <c r="D238" s="54" t="s">
         <v>1400</v>
       </c>
       <c r="E238" s="1" t="s">
@@ -26187,7 +26184,7 @@
       <c r="B239" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="D239" s="55" t="s">
+      <c r="D239" s="54" t="s">
         <v>1405</v>
       </c>
       <c r="E239" s="1" t="s">
@@ -26201,7 +26198,7 @@
       <c r="B240" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="D240" s="55" t="s">
+      <c r="D240" s="54" t="s">
         <v>1409</v>
       </c>
       <c r="E240" s="1" t="s">
@@ -26218,7 +26215,7 @@
       <c r="B241" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="D241" s="55" t="s">
+      <c r="D241" s="54" t="s">
         <v>1414</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -26232,7 +26229,7 @@
       <c r="B242" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="D242" s="55" t="s">
+      <c r="D242" s="54" t="s">
         <v>1418</v>
       </c>
       <c r="E242" s="1" t="s">
@@ -26246,7 +26243,7 @@
       <c r="B243" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="D243" s="55" t="s">
+      <c r="D243" s="54" t="s">
         <v>1422</v>
       </c>
       <c r="E243" s="1" t="s">
@@ -26260,7 +26257,7 @@
       <c r="B244" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="D244" s="55" t="s">
+      <c r="D244" s="54" t="s">
         <v>1426</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -26274,7 +26271,7 @@
       <c r="B245" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="D245" s="55" t="s">
+      <c r="D245" s="54" t="s">
         <v>1430</v>
       </c>
       <c r="E245" s="1" t="s">
@@ -26291,7 +26288,7 @@
       <c r="B246" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="D246" s="55" t="s">
+      <c r="D246" s="54" t="s">
         <v>1435</v>
       </c>
       <c r="E246" s="1" t="s">
@@ -26308,7 +26305,7 @@
       <c r="B247" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="D247" s="55" t="s">
+      <c r="D247" s="54" t="s">
         <v>1439</v>
       </c>
       <c r="E247" s="1" t="s">
@@ -26325,7 +26322,7 @@
       <c r="B248" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="D248" s="55" t="s">
+      <c r="D248" s="54" t="s">
         <v>1444</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -26339,7 +26336,7 @@
       <c r="B249" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="D249" s="55" t="s">
+      <c r="D249" s="54" t="s">
         <v>1448</v>
       </c>
       <c r="E249" s="1" t="s">
@@ -26356,7 +26353,7 @@
       <c r="B250" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="D250" s="55" t="s">
+      <c r="D250" s="54" t="s">
         <v>1453</v>
       </c>
       <c r="E250" s="1" t="s">
@@ -26373,7 +26370,7 @@
       <c r="B251" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="D251" s="55" t="s">
+      <c r="D251" s="54" t="s">
         <v>1458</v>
       </c>
       <c r="E251" s="1" t="s">
@@ -26390,7 +26387,7 @@
       <c r="B252" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="D252" s="55" t="s">
+      <c r="D252" s="54" t="s">
         <v>1463</v>
       </c>
       <c r="E252" s="1" t="s">
@@ -26404,7 +26401,7 @@
       <c r="B253" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="D253" s="55" t="s">
+      <c r="D253" s="54" t="s">
         <v>1467</v>
       </c>
       <c r="E253" s="1" t="s">
@@ -26418,7 +26415,7 @@
       <c r="B254" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="D254" s="55" t="s">
+      <c r="D254" s="54" t="s">
         <v>1471</v>
       </c>
       <c r="E254" s="1" t="s">
@@ -26435,7 +26432,7 @@
       <c r="B255" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="D255" s="55" t="s">
+      <c r="D255" s="54" t="s">
         <v>1476</v>
       </c>
       <c r="E255" s="1" t="s">
@@ -26449,7 +26446,7 @@
       <c r="B256" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="D256" s="55" t="s">
+      <c r="D256" s="54" t="s">
         <v>1480</v>
       </c>
       <c r="E256" s="1" t="s">
@@ -26466,7 +26463,7 @@
       <c r="B257" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="D257" s="55" t="s">
+      <c r="D257" s="54" t="s">
         <v>1485</v>
       </c>
       <c r="E257" s="1" t="s">
@@ -26483,7 +26480,7 @@
       <c r="B258" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="D258" s="55" t="s">
+      <c r="D258" s="54" t="s">
         <v>1490</v>
       </c>
       <c r="E258" s="1" t="s">
@@ -26497,7 +26494,7 @@
       <c r="B259" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="D259" s="55" t="s">
+      <c r="D259" s="54" t="s">
         <v>1494</v>
       </c>
       <c r="E259" s="1" t="s">
@@ -26511,7 +26508,7 @@
       <c r="B260" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="D260" s="55" t="s">
+      <c r="D260" s="54" t="s">
         <v>1498</v>
       </c>
       <c r="E260" s="1" t="s">
@@ -26525,7 +26522,7 @@
       <c r="B261" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="D261" s="55" t="s">
+      <c r="D261" s="54" t="s">
         <v>1502</v>
       </c>
       <c r="E261" s="1" t="s">
@@ -26539,7 +26536,7 @@
       <c r="B262" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="D262" s="55" t="s">
+      <c r="D262" s="54" t="s">
         <v>1506</v>
       </c>
       <c r="E262" s="1" t="s">
@@ -26559,7 +26556,7 @@
       <c r="C263" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="D263" s="55" t="s">
+      <c r="D263" s="54" t="s">
         <v>1512</v>
       </c>
       <c r="E263" s="1" t="s">
@@ -26573,7 +26570,7 @@
       <c r="B264" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="D264" s="55" t="s">
+      <c r="D264" s="54" t="s">
         <v>1516</v>
       </c>
       <c r="E264" s="1" t="s">
@@ -26587,7 +26584,7 @@
       <c r="B265" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="D265" s="55" t="s">
+      <c r="D265" s="54" t="s">
         <v>1520</v>
       </c>
       <c r="E265" s="1" t="s">
@@ -26604,7 +26601,7 @@
       <c r="B266" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="D266" s="55" t="s">
+      <c r="D266" s="54" t="s">
         <v>1525</v>
       </c>
       <c r="E266" s="1" t="s">
@@ -26618,7 +26615,7 @@
       <c r="B267" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="D267" s="55" t="s">
+      <c r="D267" s="54" t="s">
         <v>1529</v>
       </c>
       <c r="E267" s="1" t="s">
@@ -26632,7 +26629,7 @@
       <c r="B268" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="D268" s="55" t="s">
+      <c r="D268" s="54" t="s">
         <v>1533</v>
       </c>
       <c r="E268" s="1" t="s">
@@ -26649,7 +26646,7 @@
       <c r="B269" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="D269" s="55" t="s">
+      <c r="D269" s="54" t="s">
         <v>1538</v>
       </c>
       <c r="E269" s="1" t="s">
@@ -26663,7 +26660,7 @@
       <c r="B270" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="D270" s="55" t="s">
+      <c r="D270" s="54" t="s">
         <v>1542</v>
       </c>
       <c r="E270" s="1" t="s">
@@ -26683,7 +26680,7 @@
       <c r="C271" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="D271" s="55" t="s">
+      <c r="D271" s="54" t="s">
         <v>1548</v>
       </c>
       <c r="E271" s="1" t="s">
@@ -26697,7 +26694,7 @@
       <c r="B272" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="D272" s="55" t="s">
+      <c r="D272" s="54" t="s">
         <v>1552</v>
       </c>
       <c r="E272" s="1" t="s">
@@ -26714,7 +26711,7 @@
       <c r="B273" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="D273" s="55" t="s">
+      <c r="D273" s="54" t="s">
         <v>1557</v>
       </c>
       <c r="E273" s="1" t="s">
@@ -26728,7 +26725,7 @@
       <c r="B274" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="D274" s="55" t="s">
+      <c r="D274" s="54" t="s">
         <v>1561</v>
       </c>
       <c r="E274" s="1" t="s">
@@ -26748,7 +26745,7 @@
       <c r="C275" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="D275" s="55" t="s">
+      <c r="D275" s="54" t="s">
         <v>1567</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -26762,7 +26759,7 @@
       <c r="B276" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="D276" s="55" t="s">
+      <c r="D276" s="54" t="s">
         <v>1571</v>
       </c>
       <c r="E276" s="1" t="s">
@@ -26776,7 +26773,7 @@
       <c r="B277" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="D277" s="55" t="s">
+      <c r="D277" s="54" t="s">
         <v>1575</v>
       </c>
       <c r="E277" s="1" t="s">
@@ -26790,7 +26787,7 @@
       <c r="B278" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="D278" s="55" t="s">
+      <c r="D278" s="54" t="s">
         <v>1579</v>
       </c>
       <c r="E278" s="1" t="s">
@@ -26804,7 +26801,7 @@
       <c r="B279" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="D279" s="55" t="s">
+      <c r="D279" s="54" t="s">
         <v>1583</v>
       </c>
       <c r="E279" s="1" t="s">
@@ -26818,7 +26815,7 @@
       <c r="B280" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="D280" s="55" t="s">
+      <c r="D280" s="54" t="s">
         <v>1587</v>
       </c>
       <c r="E280" s="1" t="s">
@@ -26832,7 +26829,7 @@
       <c r="B281" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="D281" s="55" t="s">
+      <c r="D281" s="54" t="s">
         <v>1591</v>
       </c>
       <c r="E281" s="1" t="s">
@@ -26846,7 +26843,7 @@
       <c r="B282" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="D282" s="55" t="s">
+      <c r="D282" s="54" t="s">
         <v>1595</v>
       </c>
       <c r="E282" s="1" t="s">
@@ -26860,7 +26857,7 @@
       <c r="B283" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="D283" s="55" t="s">
+      <c r="D283" s="54" t="s">
         <v>1599</v>
       </c>
       <c r="E283" s="1" t="s">
@@ -26877,7 +26874,7 @@
       <c r="B284" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="D284" s="55" t="s">
+      <c r="D284" s="54" t="s">
         <v>1604</v>
       </c>
       <c r="E284" s="1" t="s">
@@ -26894,7 +26891,7 @@
       <c r="B285" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="D285" s="55" t="s">
+      <c r="D285" s="54" t="s">
         <v>1609</v>
       </c>
       <c r="E285" s="1" t="s">
@@ -26908,7 +26905,7 @@
       <c r="B286" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="D286" s="55" t="s">
+      <c r="D286" s="54" t="s">
         <v>1613</v>
       </c>
       <c r="E286" s="1" t="s">
@@ -26922,7 +26919,7 @@
       <c r="B287" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="D287" s="55" t="s">
+      <c r="D287" s="54" t="s">
         <v>1617</v>
       </c>
       <c r="E287" s="1" t="s">
@@ -26936,7 +26933,7 @@
       <c r="B288" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="D288" s="55" t="s">
+      <c r="D288" s="54" t="s">
         <v>1621</v>
       </c>
       <c r="E288" s="1" t="s">
@@ -26950,7 +26947,7 @@
       <c r="B289" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="D289" s="55" t="s">
+      <c r="D289" s="54" t="s">
         <v>1625</v>
       </c>
       <c r="E289" s="1" t="s">
@@ -26967,7 +26964,7 @@
       <c r="B290" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="D290" s="55" t="s">
+      <c r="D290" s="54" t="s">
         <v>1630</v>
       </c>
       <c r="E290" s="1" t="s">
@@ -26981,7 +26978,7 @@
       <c r="B291" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="D291" s="55" t="s">
+      <c r="D291" s="54" t="s">
         <v>1634</v>
       </c>
       <c r="E291" s="1" t="s">
@@ -26995,7 +26992,7 @@
       <c r="B292" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="D292" s="55" t="s">
+      <c r="D292" s="54" t="s">
         <v>1638</v>
       </c>
       <c r="E292" s="1" t="s">
@@ -27009,7 +27006,7 @@
       <c r="B293" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="D293" s="55" t="s">
+      <c r="D293" s="54" t="s">
         <v>1642</v>
       </c>
       <c r="E293" s="1" t="s">
@@ -27023,7 +27020,7 @@
       <c r="B294" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D294" s="55" t="s">
+      <c r="D294" s="54" t="s">
         <v>1646</v>
       </c>
       <c r="E294" s="1" t="s">
@@ -27037,7 +27034,7 @@
       <c r="B295" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="D295" s="55" t="s">
+      <c r="D295" s="54" t="s">
         <v>1650</v>
       </c>
       <c r="E295" s="1" t="s">
@@ -27051,7 +27048,7 @@
       <c r="B296" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="D296" s="55" t="s">
+      <c r="D296" s="54" t="s">
         <v>1654</v>
       </c>
       <c r="E296" s="1" t="s">
@@ -27065,7 +27062,7 @@
       <c r="B297" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="D297" s="55" t="s">
+      <c r="D297" s="54" t="s">
         <v>1658</v>
       </c>
       <c r="E297" s="1" t="s">
@@ -27079,7 +27076,7 @@
       <c r="B298" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="D298" s="55" t="s">
+      <c r="D298" s="54" t="s">
         <v>1662</v>
       </c>
       <c r="E298" s="1" t="s">
@@ -27093,7 +27090,7 @@
       <c r="B299" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="D299" s="55" t="s">
+      <c r="D299" s="54" t="s">
         <v>1666</v>
       </c>
       <c r="E299" s="1" t="s">
@@ -27107,7 +27104,7 @@
       <c r="B300" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="D300" s="55" t="s">
+      <c r="D300" s="54" t="s">
         <v>1670</v>
       </c>
       <c r="E300" s="1" t="s">
@@ -27121,7 +27118,7 @@
       <c r="B301" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="D301" s="55" t="s">
+      <c r="D301" s="54" t="s">
         <v>1674</v>
       </c>
       <c r="E301" s="1" t="s">
@@ -27138,7 +27135,7 @@
       <c r="B302" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="D302" s="55" t="s">
+      <c r="D302" s="54" t="s">
         <v>1679</v>
       </c>
       <c r="E302" s="1" t="s">
@@ -27155,7 +27152,7 @@
       <c r="B303" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="D303" s="55" t="s">
+      <c r="D303" s="54" t="s">
         <v>1684</v>
       </c>
       <c r="E303" s="1" t="s">
@@ -27172,7 +27169,7 @@
       <c r="B304" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D304" s="55" t="s">
+      <c r="D304" s="54" t="s">
         <v>1689</v>
       </c>
       <c r="E304" s="1" t="s">
@@ -27189,7 +27186,7 @@
       <c r="B305" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="D305" s="55" t="s">
+      <c r="D305" s="54" t="s">
         <v>1694</v>
       </c>
       <c r="E305" s="1" t="s">
@@ -27206,7 +27203,7 @@
       <c r="B306" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="D306" s="55" t="s">
+      <c r="D306" s="54" t="s">
         <v>1699</v>
       </c>
       <c r="E306" s="1" t="s">
@@ -27220,7 +27217,7 @@
       <c r="B307" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="D307" s="55" t="s">
+      <c r="D307" s="54" t="s">
         <v>1703</v>
       </c>
       <c r="E307" s="1" t="s">
@@ -27237,7 +27234,7 @@
       <c r="B308" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="D308" s="55" t="s">
+      <c r="D308" s="54" t="s">
         <v>1708</v>
       </c>
       <c r="E308" s="1" t="s">
@@ -27251,7 +27248,7 @@
       <c r="B309" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="D309" s="55" t="s">
+      <c r="D309" s="54" t="s">
         <v>1712</v>
       </c>
       <c r="E309" s="1" t="s">
@@ -27265,7 +27262,7 @@
       <c r="B310" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="D310" s="55" t="s">
+      <c r="D310" s="54" t="s">
         <v>1716</v>
       </c>
       <c r="E310" s="1" t="s">
@@ -27279,7 +27276,7 @@
       <c r="B311" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="D311" s="55" t="s">
+      <c r="D311" s="54" t="s">
         <v>1720</v>
       </c>
       <c r="E311" s="1" t="s">
@@ -27293,7 +27290,7 @@
       <c r="B312" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="D312" s="55" t="s">
+      <c r="D312" s="54" t="s">
         <v>1724</v>
       </c>
       <c r="E312" s="1" t="s">
@@ -27310,7 +27307,7 @@
       <c r="B313" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="D313" s="55" t="s">
+      <c r="D313" s="54" t="s">
         <v>1729</v>
       </c>
       <c r="E313" s="1" t="s">
@@ -27327,7 +27324,7 @@
       <c r="B314" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="D314" s="55" t="s">
+      <c r="D314" s="54" t="s">
         <v>1734</v>
       </c>
       <c r="E314" s="1" t="s">
@@ -27341,7 +27338,7 @@
       <c r="B315" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="D315" s="55" t="s">
+      <c r="D315" s="54" t="s">
         <v>1738</v>
       </c>
       <c r="E315" s="1" t="s">
@@ -27355,7 +27352,7 @@
       <c r="B316" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="D316" s="55" t="s">
+      <c r="D316" s="54" t="s">
         <v>1742</v>
       </c>
       <c r="E316" s="1" t="s">
@@ -27372,7 +27369,7 @@
       <c r="B317" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="D317" s="55" t="s">
+      <c r="D317" s="54" t="s">
         <v>1747</v>
       </c>
       <c r="E317" s="1" t="s">
@@ -27386,7 +27383,7 @@
       <c r="B318" s="1" t="s">
         <v>1750</v>
       </c>
-      <c r="D318" s="55" t="s">
+      <c r="D318" s="54" t="s">
         <v>1751</v>
       </c>
       <c r="E318" s="1" t="s">
@@ -27400,7 +27397,7 @@
       <c r="B319" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="D319" s="55" t="s">
+      <c r="D319" s="54" t="s">
         <v>1755</v>
       </c>
       <c r="E319" s="1" t="s">
@@ -27414,7 +27411,7 @@
       <c r="B320" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="D320" s="55" t="s">
+      <c r="D320" s="54" t="s">
         <v>1759</v>
       </c>
       <c r="E320" s="1" t="s">
@@ -27428,7 +27425,7 @@
       <c r="B321" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="D321" s="55" t="s">
+      <c r="D321" s="54" t="s">
         <v>1763</v>
       </c>
       <c r="E321" s="1" t="s">
@@ -27445,7 +27442,7 @@
       <c r="B322" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="D322" s="55" t="s">
+      <c r="D322" s="54" t="s">
         <v>1768</v>
       </c>
       <c r="E322" s="1" t="s">
@@ -27459,7 +27456,7 @@
       <c r="B323" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="D323" s="55" t="s">
+      <c r="D323" s="54" t="s">
         <v>1772</v>
       </c>
       <c r="E323" s="1" t="s">
@@ -27473,7 +27470,7 @@
       <c r="B324" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="D324" s="55" t="s">
+      <c r="D324" s="54" t="s">
         <v>1776</v>
       </c>
       <c r="E324" s="1" t="s">
@@ -27487,7 +27484,7 @@
       <c r="B325" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="D325" s="55" t="s">
+      <c r="D325" s="54" t="s">
         <v>1780</v>
       </c>
       <c r="E325" s="1" t="s">
@@ -27501,7 +27498,7 @@
       <c r="B326" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="D326" s="55" t="s">
+      <c r="D326" s="54" t="s">
         <v>1784</v>
       </c>
       <c r="E326" s="1" t="s">
@@ -27518,7 +27515,7 @@
       <c r="B327" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="D327" s="55" t="s">
+      <c r="D327" s="54" t="s">
         <v>1789</v>
       </c>
       <c r="E327" s="1" t="s">
@@ -27535,7 +27532,7 @@
       <c r="B328" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="D328" s="55" t="s">
+      <c r="D328" s="54" t="s">
         <v>1794</v>
       </c>
       <c r="E328" s="1" t="s">
@@ -27552,7 +27549,7 @@
       <c r="B329" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="D329" s="55" t="s">
+      <c r="D329" s="54" t="s">
         <v>1799</v>
       </c>
       <c r="E329" s="1" t="s">
@@ -27569,7 +27566,7 @@
       <c r="B330" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="D330" s="55" t="s">
+      <c r="D330" s="54" t="s">
         <v>1804</v>
       </c>
       <c r="E330" s="1" t="s">
@@ -27583,7 +27580,7 @@
       <c r="B331" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="D331" s="55" t="s">
+      <c r="D331" s="54" t="s">
         <v>1808</v>
       </c>
       <c r="E331" s="1" t="s">
@@ -27600,7 +27597,7 @@
       <c r="B332" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="D332" s="55" t="s">
+      <c r="D332" s="54" t="s">
         <v>1813</v>
       </c>
       <c r="E332" s="1" t="s">
@@ -27614,7 +27611,7 @@
       <c r="B333" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="D333" s="55" t="s">
+      <c r="D333" s="54" t="s">
         <v>1817</v>
       </c>
       <c r="E333" s="1" t="s">
@@ -27628,7 +27625,7 @@
       <c r="B334" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="D334" s="55" t="s">
+      <c r="D334" s="54" t="s">
         <v>1821</v>
       </c>
       <c r="E334" s="1" t="s">
@@ -27642,7 +27639,7 @@
       <c r="B335" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="D335" s="55" t="s">
+      <c r="D335" s="54" t="s">
         <v>1825</v>
       </c>
       <c r="E335" s="1" t="s">
@@ -27656,7 +27653,7 @@
       <c r="B336" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="D336" s="55" t="s">
+      <c r="D336" s="54" t="s">
         <v>1829</v>
       </c>
       <c r="E336" s="1" t="s">
@@ -27670,7 +27667,7 @@
       <c r="B337" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="D337" s="55" t="s">
+      <c r="D337" s="54" t="s">
         <v>1833</v>
       </c>
       <c r="E337" s="1" t="s">
@@ -27684,7 +27681,7 @@
       <c r="B338" s="1" t="s">
         <v>1836</v>
       </c>
-      <c r="D338" s="55" t="s">
+      <c r="D338" s="54" t="s">
         <v>1837</v>
       </c>
       <c r="E338" s="1" t="s">
@@ -27701,7 +27698,7 @@
       <c r="B339" s="1" t="s">
         <v>1841</v>
       </c>
-      <c r="D339" s="55" t="s">
+      <c r="D339" s="54" t="s">
         <v>1842</v>
       </c>
       <c r="E339" s="1" t="s">
@@ -27715,7 +27712,7 @@
       <c r="B340" s="1" t="s">
         <v>1845</v>
       </c>
-      <c r="D340" s="55" t="s">
+      <c r="D340" s="54" t="s">
         <v>1846</v>
       </c>
       <c r="E340" s="1" t="s">
@@ -27729,7 +27726,7 @@
       <c r="B341" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="D341" s="55" t="s">
+      <c r="D341" s="54" t="s">
         <v>1850</v>
       </c>
       <c r="E341" s="1" t="s">
@@ -27743,7 +27740,7 @@
       <c r="B342" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="D342" s="55" t="s">
+      <c r="D342" s="54" t="s">
         <v>1854</v>
       </c>
       <c r="E342" s="1" t="s">
@@ -27763,7 +27760,7 @@
       <c r="C343" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="D343" s="55" t="s">
+      <c r="D343" s="54" t="s">
         <v>1860</v>
       </c>
       <c r="E343" s="1" t="s">
@@ -27777,7 +27774,7 @@
       <c r="B344" s="1" t="s">
         <v>1863</v>
       </c>
-      <c r="D344" s="55" t="s">
+      <c r="D344" s="54" t="s">
         <v>1864</v>
       </c>
       <c r="E344" s="1" t="s">
@@ -27791,7 +27788,7 @@
       <c r="B345" s="1" t="s">
         <v>1867</v>
       </c>
-      <c r="D345" s="55" t="s">
+      <c r="D345" s="54" t="s">
         <v>1868</v>
       </c>
       <c r="E345" s="1" t="s">
@@ -27808,7 +27805,7 @@
       <c r="B346" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="D346" s="55" t="s">
+      <c r="D346" s="54" t="s">
         <v>1873</v>
       </c>
       <c r="E346" s="1" t="s">
@@ -27825,7 +27822,7 @@
       <c r="B347" s="1" t="s">
         <v>1877</v>
       </c>
-      <c r="D347" s="55" t="s">
+      <c r="D347" s="54" t="s">
         <v>1878</v>
       </c>
       <c r="E347" s="1" t="s">
@@ -27839,7 +27836,7 @@
       <c r="B348" s="1" t="s">
         <v>1881</v>
       </c>
-      <c r="D348" s="55" t="s">
+      <c r="D348" s="54" t="s">
         <v>1882</v>
       </c>
       <c r="E348" s="1" t="s">
@@ -27856,7 +27853,7 @@
       <c r="B349" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="D349" s="55" t="s">
+      <c r="D349" s="54" t="s">
         <v>1887</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -27870,7 +27867,7 @@
       <c r="B350" s="1" t="s">
         <v>1890</v>
       </c>
-      <c r="D350" s="55" t="s">
+      <c r="D350" s="54" t="s">
         <v>1891</v>
       </c>
       <c r="E350" s="1" t="s">
@@ -27884,7 +27881,7 @@
       <c r="B351" s="1" t="s">
         <v>1894</v>
       </c>
-      <c r="D351" s="55" t="s">
+      <c r="D351" s="54" t="s">
         <v>1895</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -27901,7 +27898,7 @@
       <c r="B352" s="1" t="s">
         <v>1899</v>
       </c>
-      <c r="D352" s="55" t="s">
+      <c r="D352" s="54" t="s">
         <v>1900</v>
       </c>
       <c r="E352" s="1" t="s">
@@ -27915,7 +27912,7 @@
       <c r="B353" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="D353" s="55" t="s">
+      <c r="D353" s="54" t="s">
         <v>1904</v>
       </c>
       <c r="E353" s="1" t="s">
@@ -27932,7 +27929,7 @@
       <c r="B354" s="1" t="s">
         <v>1908</v>
       </c>
-      <c r="D354" s="55" t="s">
+      <c r="D354" s="54" t="s">
         <v>1909</v>
       </c>
       <c r="E354" s="1" t="s">
@@ -27946,7 +27943,7 @@
       <c r="B355" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="D355" s="55" t="s">
+      <c r="D355" s="54" t="s">
         <v>1913</v>
       </c>
       <c r="E355" s="1" t="s">
@@ -27960,7 +27957,7 @@
       <c r="B356" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="D356" s="55" t="s">
+      <c r="D356" s="54" t="s">
         <v>1917</v>
       </c>
       <c r="E356" s="1" t="s">
@@ -27974,7 +27971,7 @@
       <c r="B357" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="D357" s="55" t="s">
+      <c r="D357" s="54" t="s">
         <v>1921</v>
       </c>
       <c r="E357" s="1" t="s">
@@ -27988,7 +27985,7 @@
       <c r="B358" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="D358" s="55" t="s">
+      <c r="D358" s="54" t="s">
         <v>1925</v>
       </c>
       <c r="E358" s="1" t="s">
@@ -28005,7 +28002,7 @@
       <c r="B359" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="D359" s="55" t="s">
+      <c r="D359" s="54" t="s">
         <v>1930</v>
       </c>
       <c r="E359" s="1" t="s">
@@ -28019,7 +28016,7 @@
       <c r="B360" s="1" t="s">
         <v>1933</v>
       </c>
-      <c r="D360" s="55" t="s">
+      <c r="D360" s="54" t="s">
         <v>1934</v>
       </c>
       <c r="E360" s="1" t="s">
@@ -28039,7 +28036,7 @@
       <c r="C361" s="1" t="s">
         <v>1939</v>
       </c>
-      <c r="D361" s="55" t="s">
+      <c r="D361" s="54" t="s">
         <v>1940</v>
       </c>
       <c r="E361" s="1" t="s">
@@ -28056,7 +28053,7 @@
       <c r="B362" s="1" t="s">
         <v>1944</v>
       </c>
-      <c r="D362" s="55" t="s">
+      <c r="D362" s="54" t="s">
         <v>1945</v>
       </c>
       <c r="E362" s="1" t="s">
@@ -28070,7 +28067,7 @@
       <c r="B363" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="D363" s="55" t="s">
+      <c r="D363" s="54" t="s">
         <v>1949</v>
       </c>
       <c r="E363" s="1" t="s">
@@ -28087,7 +28084,7 @@
       <c r="B364" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="D364" s="55" t="s">
+      <c r="D364" s="54" t="s">
         <v>1954</v>
       </c>
       <c r="E364" s="1" t="s">
@@ -28101,7 +28098,7 @@
       <c r="B365" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="D365" s="55" t="s">
+      <c r="D365" s="54" t="s">
         <v>1958</v>
       </c>
       <c r="E365" s="1" t="s">
@@ -28118,7 +28115,7 @@
       <c r="B366" s="1" t="s">
         <v>1962</v>
       </c>
-      <c r="D366" s="55" t="s">
+      <c r="D366" s="54" t="s">
         <v>1963</v>
       </c>
       <c r="E366" s="1" t="s">
@@ -28132,7 +28129,7 @@
       <c r="B367" s="1" t="s">
         <v>1966</v>
       </c>
-      <c r="D367" s="55" t="s">
+      <c r="D367" s="54" t="s">
         <v>1967</v>
       </c>
       <c r="E367" s="1" t="s">
@@ -28146,7 +28143,7 @@
       <c r="B368" s="1" t="s">
         <v>1970</v>
       </c>
-      <c r="D368" s="55" t="s">
+      <c r="D368" s="54" t="s">
         <v>1971</v>
       </c>
       <c r="E368" s="1" t="s">
@@ -28160,7 +28157,7 @@
       <c r="B369" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="D369" s="55" t="s">
+      <c r="D369" s="54" t="s">
         <v>1975</v>
       </c>
       <c r="E369" s="1" t="s">
@@ -28174,7 +28171,7 @@
       <c r="B370" s="1" t="s">
         <v>1978</v>
       </c>
-      <c r="D370" s="55" t="s">
+      <c r="D370" s="54" t="s">
         <v>1979</v>
       </c>
       <c r="E370" s="1" t="s">
@@ -28191,7 +28188,7 @@
       <c r="B371" s="1" t="s">
         <v>1983</v>
       </c>
-      <c r="D371" s="55" t="s">
+      <c r="D371" s="54" t="s">
         <v>1984</v>
       </c>
       <c r="E371" s="1" t="s">
@@ -28205,7 +28202,7 @@
       <c r="B372" s="1" t="s">
         <v>1987</v>
       </c>
-      <c r="D372" s="55" t="s">
+      <c r="D372" s="54" t="s">
         <v>1988</v>
       </c>
       <c r="E372" s="1" t="s">
@@ -28219,7 +28216,7 @@
       <c r="B373" s="1" t="s">
         <v>1991</v>
       </c>
-      <c r="D373" s="55" t="s">
+      <c r="D373" s="54" t="s">
         <v>1992</v>
       </c>
       <c r="E373" s="1" t="s">
@@ -28233,7 +28230,7 @@
       <c r="B374" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="D374" s="55" t="s">
+      <c r="D374" s="54" t="s">
         <v>1996</v>
       </c>
       <c r="E374" s="1" t="s">
@@ -28247,7 +28244,7 @@
       <c r="B375" s="1" t="s">
         <v>1999</v>
       </c>
-      <c r="D375" s="55" t="s">
+      <c r="D375" s="54" t="s">
         <v>2000</v>
       </c>
       <c r="E375" s="1" t="s">
@@ -28261,7 +28258,7 @@
       <c r="B376" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="D376" s="55" t="s">
+      <c r="D376" s="54" t="s">
         <v>2004</v>
       </c>
       <c r="E376" s="1" t="s">
@@ -28275,7 +28272,7 @@
       <c r="B377" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="D377" s="55" t="s">
+      <c r="D377" s="54" t="s">
         <v>2008</v>
       </c>
       <c r="E377" s="1" t="s">
@@ -28289,7 +28286,7 @@
       <c r="B378" s="1" t="s">
         <v>2011</v>
       </c>
-      <c r="D378" s="55" t="s">
+      <c r="D378" s="54" t="s">
         <v>2012</v>
       </c>
       <c r="E378" s="1" t="s">
@@ -28303,7 +28300,7 @@
       <c r="B379" s="1" t="s">
         <v>2015</v>
       </c>
-      <c r="D379" s="55" t="s">
+      <c r="D379" s="54" t="s">
         <v>2016</v>
       </c>
       <c r="E379" s="1" t="s">
@@ -28317,7 +28314,7 @@
       <c r="B380" s="1" t="s">
         <v>2019</v>
       </c>
-      <c r="D380" s="55" t="s">
+      <c r="D380" s="54" t="s">
         <v>2020</v>
       </c>
       <c r="E380" s="1" t="s">
@@ -28331,7 +28328,7 @@
       <c r="B381" s="1" t="s">
         <v>2023</v>
       </c>
-      <c r="D381" s="55" t="s">
+      <c r="D381" s="54" t="s">
         <v>2024</v>
       </c>
       <c r="E381" s="1" t="s">
@@ -28348,7 +28345,7 @@
       <c r="B382" s="1" t="s">
         <v>2028</v>
       </c>
-      <c r="D382" s="55" t="s">
+      <c r="D382" s="54" t="s">
         <v>2029</v>
       </c>
       <c r="E382" s="1" t="s">
@@ -28362,7 +28359,7 @@
       <c r="B383" s="1" t="s">
         <v>2032</v>
       </c>
-      <c r="D383" s="55" t="s">
+      <c r="D383" s="54" t="s">
         <v>2033</v>
       </c>
       <c r="E383" s="1" t="s">
@@ -28376,7 +28373,7 @@
       <c r="B384" s="1" t="s">
         <v>2036</v>
       </c>
-      <c r="D384" s="55" t="s">
+      <c r="D384" s="54" t="s">
         <v>2037</v>
       </c>
       <c r="E384" s="1" t="s">
@@ -28390,7 +28387,7 @@
       <c r="B385" s="1" t="s">
         <v>2040</v>
       </c>
-      <c r="D385" s="55" t="s">
+      <c r="D385" s="54" t="s">
         <v>2041</v>
       </c>
       <c r="E385" s="1" t="s">
@@ -28410,7 +28407,7 @@
       <c r="C386" s="1" t="s">
         <v>2046</v>
       </c>
-      <c r="D386" s="55" t="s">
+      <c r="D386" s="54" t="s">
         <v>2047</v>
       </c>
       <c r="E386" s="1" t="s">
@@ -28427,7 +28424,7 @@
       <c r="B387" s="1" t="s">
         <v>2051</v>
       </c>
-      <c r="D387" s="55" t="s">
+      <c r="D387" s="54" t="s">
         <v>2052</v>
       </c>
       <c r="E387" s="1" t="s">
@@ -28441,7 +28438,7 @@
       <c r="B388" s="1" t="s">
         <v>2055</v>
       </c>
-      <c r="D388" s="55" t="s">
+      <c r="D388" s="54" t="s">
         <v>2056</v>
       </c>
       <c r="E388" s="1" t="s">
@@ -28458,7 +28455,7 @@
       <c r="B389" s="1" t="s">
         <v>2060</v>
       </c>
-      <c r="D389" s="55" t="s">
+      <c r="D389" s="54" t="s">
         <v>2061</v>
       </c>
       <c r="E389" s="1" t="s">
@@ -28472,7 +28469,7 @@
       <c r="B390" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="D390" s="55" t="s">
+      <c r="D390" s="54" t="s">
         <v>2065</v>
       </c>
       <c r="E390" s="1" t="s">
@@ -28486,7 +28483,7 @@
       <c r="B391" s="1" t="s">
         <v>2068</v>
       </c>
-      <c r="D391" s="55" t="s">
+      <c r="D391" s="54" t="s">
         <v>2069</v>
       </c>
       <c r="E391" s="1" t="s">
@@ -28500,7 +28497,7 @@
       <c r="B392" s="1" t="s">
         <v>2072</v>
       </c>
-      <c r="D392" s="55" t="s">
+      <c r="D392" s="54" t="s">
         <v>2073</v>
       </c>
       <c r="E392" s="1" t="s">
@@ -28517,7 +28514,7 @@
       <c r="B393" s="1" t="s">
         <v>2077</v>
       </c>
-      <c r="D393" s="55" t="s">
+      <c r="D393" s="54" t="s">
         <v>2078</v>
       </c>
       <c r="E393" s="1" t="s">
@@ -28531,7 +28528,7 @@
       <c r="B394" s="1" t="s">
         <v>2081</v>
       </c>
-      <c r="D394" s="55" t="s">
+      <c r="D394" s="54" t="s">
         <v>2082</v>
       </c>
       <c r="E394" s="1" t="s">
@@ -28548,7 +28545,7 @@
       <c r="B395" s="1" t="s">
         <v>2086</v>
       </c>
-      <c r="D395" s="55" t="s">
+      <c r="D395" s="54" t="s">
         <v>2087</v>
       </c>
       <c r="E395" s="1" t="s">
@@ -28565,7 +28562,7 @@
       <c r="B396" s="1" t="s">
         <v>2091</v>
       </c>
-      <c r="D396" s="55" t="s">
+      <c r="D396" s="54" t="s">
         <v>2092</v>
       </c>
       <c r="E396" s="1" t="s">
@@ -28579,7 +28576,7 @@
       <c r="B397" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="D397" s="55" t="s">
+      <c r="D397" s="54" t="s">
         <v>2096</v>
       </c>
       <c r="E397" s="1" t="s">
@@ -28593,7 +28590,7 @@
       <c r="B398" s="1" t="s">
         <v>2099</v>
       </c>
-      <c r="D398" s="55" t="s">
+      <c r="D398" s="54" t="s">
         <v>2100</v>
       </c>
       <c r="E398" s="1" t="s">
@@ -28610,7 +28607,7 @@
       <c r="B399" s="1" t="s">
         <v>2104</v>
       </c>
-      <c r="D399" s="55" t="s">
+      <c r="D399" s="54" t="s">
         <v>2105</v>
       </c>
       <c r="E399" s="1" t="s">
@@ -28624,7 +28621,7 @@
       <c r="B400" s="1" t="s">
         <v>2108</v>
       </c>
-      <c r="D400" s="55" t="s">
+      <c r="D400" s="54" t="s">
         <v>2109</v>
       </c>
       <c r="E400" s="1" t="s">
@@ -28641,7 +28638,7 @@
       <c r="B401" s="1" t="s">
         <v>2113</v>
       </c>
-      <c r="D401" s="55" t="s">
+      <c r="D401" s="54" t="s">
         <v>2114</v>
       </c>
       <c r="E401" s="1" t="s">
@@ -28658,7 +28655,7 @@
       <c r="B402" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="D402" s="55" t="s">
+      <c r="D402" s="54" t="s">
         <v>2119</v>
       </c>
       <c r="E402" s="1" t="s">
@@ -28675,7 +28672,7 @@
       <c r="B403" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="D403" s="55" t="s">
+      <c r="D403" s="54" t="s">
         <v>2124</v>
       </c>
       <c r="E403" s="1" t="s">
@@ -28689,7 +28686,7 @@
       <c r="B404" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="D404" s="55" t="s">
+      <c r="D404" s="54" t="s">
         <v>2128</v>
       </c>
       <c r="E404" s="1" t="s">
@@ -28706,7 +28703,7 @@
       <c r="B405" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="D405" s="55" t="s">
+      <c r="D405" s="54" t="s">
         <v>2133</v>
       </c>
       <c r="E405" s="1" t="s">
@@ -28720,7 +28717,7 @@
       <c r="B406" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D406" s="55" t="s">
+      <c r="D406" s="54" t="s">
         <v>2137</v>
       </c>
       <c r="E406" s="1" t="s">
@@ -28734,7 +28731,7 @@
       <c r="B407" s="1" t="s">
         <v>2140</v>
       </c>
-      <c r="D407" s="55" t="s">
+      <c r="D407" s="54" t="s">
         <v>2141</v>
       </c>
       <c r="E407" s="1" t="s">
@@ -28751,7 +28748,7 @@
       <c r="B408" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="D408" s="55" t="s">
+      <c r="D408" s="54" t="s">
         <v>2146</v>
       </c>
       <c r="E408" s="1" t="s">
@@ -28765,7 +28762,7 @@
       <c r="B409" s="1" t="s">
         <v>2149</v>
       </c>
-      <c r="D409" s="55" t="s">
+      <c r="D409" s="54" t="s">
         <v>2150</v>
       </c>
       <c r="E409" s="1" t="s">
@@ -28782,7 +28779,7 @@
       <c r="B410" s="1" t="s">
         <v>2154</v>
       </c>
-      <c r="D410" s="55" t="s">
+      <c r="D410" s="54" t="s">
         <v>2155</v>
       </c>
       <c r="E410" s="1" t="s">
@@ -28796,7 +28793,7 @@
       <c r="B411" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="D411" s="55" t="s">
+      <c r="D411" s="54" t="s">
         <v>2159</v>
       </c>
       <c r="E411" s="1" t="s">
@@ -28810,7 +28807,7 @@
       <c r="B412" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="D412" s="55" t="s">
+      <c r="D412" s="54" t="s">
         <v>2163</v>
       </c>
       <c r="E412" s="1" t="s">
@@ -28827,7 +28824,7 @@
       <c r="B413" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="D413" s="55" t="s">
+      <c r="D413" s="54" t="s">
         <v>2168</v>
       </c>
       <c r="E413" s="1" t="s">
@@ -28844,7 +28841,7 @@
       <c r="B414" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="D414" s="55" t="s">
+      <c r="D414" s="54" t="s">
         <v>2173</v>
       </c>
       <c r="E414" s="1" t="s">
@@ -28858,7 +28855,7 @@
       <c r="B415" s="1" t="s">
         <v>2176</v>
       </c>
-      <c r="D415" s="55" t="s">
+      <c r="D415" s="54" t="s">
         <v>2177</v>
       </c>
       <c r="E415" s="1" t="s">
@@ -28872,7 +28869,7 @@
       <c r="B416" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="D416" s="55" t="s">
+      <c r="D416" s="54" t="s">
         <v>2181</v>
       </c>
       <c r="E416" s="1" t="s">
@@ -28889,7 +28886,7 @@
       <c r="B417" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="D417" s="55" t="s">
+      <c r="D417" s="54" t="s">
         <v>2186</v>
       </c>
       <c r="E417" s="1" t="s">
@@ -28903,7 +28900,7 @@
       <c r="B418" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="D418" s="55" t="s">
+      <c r="D418" s="54" t="s">
         <v>2190</v>
       </c>
       <c r="E418" s="1" t="s">
@@ -28920,7 +28917,7 @@
       <c r="B419" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="D419" s="55" t="s">
+      <c r="D419" s="54" t="s">
         <v>2195</v>
       </c>
       <c r="E419" s="1" t="s">
@@ -28937,7 +28934,7 @@
       <c r="B420" s="1" t="s">
         <v>2199</v>
       </c>
-      <c r="D420" s="55" t="s">
+      <c r="D420" s="54" t="s">
         <v>2200</v>
       </c>
       <c r="E420" s="1" t="s">
@@ -28954,7 +28951,7 @@
       <c r="B421" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="D421" s="55" t="s">
+      <c r="D421" s="54" t="s">
         <v>2205</v>
       </c>
       <c r="E421" s="1" t="s">
@@ -28968,7 +28965,7 @@
       <c r="B422" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="D422" s="55" t="s">
+      <c r="D422" s="54" t="s">
         <v>2209</v>
       </c>
       <c r="E422" s="1" t="s">
@@ -28982,7 +28979,7 @@
       <c r="B423" s="1" t="s">
         <v>2212</v>
       </c>
-      <c r="D423" s="55" t="s">
+      <c r="D423" s="54" t="s">
         <v>2213</v>
       </c>
       <c r="E423" s="1" t="s">
@@ -28996,7 +28993,7 @@
       <c r="B424" s="1" t="s">
         <v>2216</v>
       </c>
-      <c r="D424" s="55" t="s">
+      <c r="D424" s="54" t="s">
         <v>2217</v>
       </c>
       <c r="E424" s="1" t="s">
@@ -29013,7 +29010,7 @@
       <c r="B425" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="D425" s="55" t="s">
+      <c r="D425" s="54" t="s">
         <v>2222</v>
       </c>
       <c r="E425" s="1" t="s">
@@ -29030,7 +29027,7 @@
       <c r="B426" s="1" t="s">
         <v>2226</v>
       </c>
-      <c r="D426" s="55" t="s">
+      <c r="D426" s="54" t="s">
         <v>2227</v>
       </c>
       <c r="E426" s="1" t="s">
@@ -29047,7 +29044,7 @@
       <c r="B427" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D427" s="55" t="s">
+      <c r="D427" s="54" t="s">
         <v>2232</v>
       </c>
       <c r="E427" s="1" t="s">
@@ -29067,7 +29064,7 @@
       <c r="C428" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D428" s="55" t="s">
+      <c r="D428" s="54" t="s">
         <v>2238</v>
       </c>
       <c r="E428" s="1" t="s">
@@ -29081,7 +29078,7 @@
       <c r="B429" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D429" s="55" t="s">
+      <c r="D429" s="54" t="s">
         <v>2242</v>
       </c>
       <c r="E429" s="1" t="s">
@@ -29098,7 +29095,7 @@
       <c r="B430" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="D430" s="55" t="s">
+      <c r="D430" s="54" t="s">
         <v>2247</v>
       </c>
       <c r="E430" s="1" t="s">
@@ -29112,7 +29109,7 @@
       <c r="B431" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="D431" s="55" t="s">
+      <c r="D431" s="54" t="s">
         <v>2251</v>
       </c>
       <c r="E431" s="1" t="s">
@@ -29126,7 +29123,7 @@
       <c r="B432" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="D432" s="55" t="s">
+      <c r="D432" s="54" t="s">
         <v>2254</v>
       </c>
       <c r="E432" s="1" t="s">
@@ -29140,7 +29137,7 @@
       <c r="B433" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="D433" s="55" t="s">
+      <c r="D433" s="54" t="s">
         <v>2258</v>
       </c>
       <c r="E433" s="1" t="s">
@@ -29154,7 +29151,7 @@
       <c r="B434" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="D434" s="55" t="s">
+      <c r="D434" s="54" t="s">
         <v>2262</v>
       </c>
       <c r="E434" s="1" t="s">
@@ -29168,7 +29165,7 @@
       <c r="B435" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="D435" s="55" t="s">
+      <c r="D435" s="54" t="s">
         <v>2266</v>
       </c>
       <c r="E435" s="1" t="s">
@@ -29182,7 +29179,7 @@
       <c r="B436" s="1" t="s">
         <v>2269</v>
       </c>
-      <c r="D436" s="55" t="s">
+      <c r="D436" s="54" t="s">
         <v>2270</v>
       </c>
       <c r="E436" s="1" t="s">
@@ -29199,7 +29196,7 @@
       <c r="B437" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="D437" s="55" t="s">
+      <c r="D437" s="54" t="s">
         <v>2275</v>
       </c>
       <c r="E437" s="1" t="s">
@@ -29213,7 +29210,7 @@
       <c r="B438" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="D438" s="55" t="s">
+      <c r="D438" s="54" t="s">
         <v>2279</v>
       </c>
       <c r="E438" s="1" t="s">
@@ -29227,7 +29224,7 @@
       <c r="B439" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="D439" s="55" t="s">
+      <c r="D439" s="54" t="s">
         <v>2283</v>
       </c>
       <c r="E439" s="1" t="s">
@@ -29244,7 +29241,7 @@
       <c r="B440" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="D440" s="55" t="s">
+      <c r="D440" s="54" t="s">
         <v>2288</v>
       </c>
       <c r="E440" s="1" t="s">
@@ -29261,7 +29258,7 @@
       <c r="B441" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="D441" s="55" t="s">
+      <c r="D441" s="54" t="s">
         <v>2293</v>
       </c>
       <c r="E441" s="1" t="s">
@@ -29278,7 +29275,7 @@
       <c r="B442" s="1" t="s">
         <v>2297</v>
       </c>
-      <c r="D442" s="55" t="s">
+      <c r="D442" s="54" t="s">
         <v>2298</v>
       </c>
       <c r="E442" s="1" t="s">
@@ -29292,7 +29289,7 @@
       <c r="B443" s="1" t="s">
         <v>2301</v>
       </c>
-      <c r="D443" s="55" t="s">
+      <c r="D443" s="54" t="s">
         <v>2302</v>
       </c>
       <c r="E443" s="1" t="s">
@@ -29306,7 +29303,7 @@
       <c r="B444" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="D444" s="55" t="s">
+      <c r="D444" s="54" t="s">
         <v>2306</v>
       </c>
       <c r="E444" s="1" t="s">
@@ -29323,7 +29320,7 @@
       <c r="B445" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="D445" s="55" t="s">
+      <c r="D445" s="54" t="s">
         <v>2311</v>
       </c>
       <c r="E445" s="1" t="s">
@@ -29337,7 +29334,7 @@
       <c r="B446" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="D446" s="55" t="s">
+      <c r="D446" s="54" t="s">
         <v>2315</v>
       </c>
       <c r="E446" s="1" t="s">
@@ -29351,7 +29348,7 @@
       <c r="B447" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="D447" s="55" t="s">
+      <c r="D447" s="54" t="s">
         <v>2319</v>
       </c>
       <c r="E447" s="1" t="s">
@@ -29368,7 +29365,7 @@
       <c r="B448" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="D448" s="55" t="s">
+      <c r="D448" s="54" t="s">
         <v>2324</v>
       </c>
       <c r="E448" s="1" t="s">
@@ -29382,7 +29379,7 @@
       <c r="B449" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="D449" s="55" t="s">
+      <c r="D449" s="54" t="s">
         <v>2327</v>
       </c>
       <c r="E449" s="1" t="s">
@@ -29396,7 +29393,7 @@
       <c r="B450" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="D450" s="55" t="s">
+      <c r="D450" s="54" t="s">
         <v>2331</v>
       </c>
       <c r="E450" s="1" t="s">
@@ -29410,7 +29407,7 @@
       <c r="B451" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="D451" s="55" t="s">
+      <c r="D451" s="54" t="s">
         <v>2335</v>
       </c>
       <c r="E451" s="1" t="s">
@@ -29427,7 +29424,7 @@
       <c r="B452" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="D452" s="55" t="s">
+      <c r="D452" s="54" t="s">
         <v>2340</v>
       </c>
       <c r="E452" s="1" t="s">
@@ -29444,7 +29441,7 @@
       <c r="B453" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="D453" s="55" t="s">
+      <c r="D453" s="54" t="s">
         <v>2345</v>
       </c>
       <c r="E453" s="1" t="s">
@@ -29458,7 +29455,7 @@
       <c r="B454" s="1" t="s">
         <v>2348</v>
       </c>
-      <c r="D454" s="55" t="s">
+      <c r="D454" s="54" t="s">
         <v>2349</v>
       </c>
       <c r="E454" s="1" t="s">
@@ -29472,7 +29469,7 @@
       <c r="B455" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="D455" s="55" t="s">
+      <c r="D455" s="54" t="s">
         <v>2353</v>
       </c>
       <c r="E455" s="1" t="s">
@@ -29489,7 +29486,7 @@
       <c r="B456" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="D456" s="55" t="s">
+      <c r="D456" s="54" t="s">
         <v>2358</v>
       </c>
       <c r="E456" s="1" t="s">
@@ -29506,7 +29503,7 @@
       <c r="B457" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="D457" s="55" t="s">
+      <c r="D457" s="54" t="s">
         <v>2363</v>
       </c>
       <c r="E457" s="1" t="s">
@@ -29520,7 +29517,7 @@
       <c r="B458" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="D458" s="55" t="s">
+      <c r="D458" s="54" t="s">
         <v>2367</v>
       </c>
       <c r="E458" s="1" t="s">
@@ -29537,7 +29534,7 @@
       <c r="B459" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="D459" s="55" t="s">
+      <c r="D459" s="54" t="s">
         <v>2372</v>
       </c>
       <c r="E459" s="1" t="s">
@@ -29554,7 +29551,7 @@
       <c r="B460" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="D460" s="55" t="s">
+      <c r="D460" s="54" t="s">
         <v>2377</v>
       </c>
       <c r="E460" s="1" t="s">
@@ -29571,7 +29568,7 @@
       <c r="B461" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="D461" s="55" t="s">
+      <c r="D461" s="54" t="s">
         <v>2382</v>
       </c>
       <c r="E461" s="1" t="s">
@@ -29585,7 +29582,7 @@
       <c r="B462" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="D462" s="55" t="s">
+      <c r="D462" s="54" t="s">
         <v>2386</v>
       </c>
       <c r="E462" s="1" t="s">
@@ -29599,7 +29596,7 @@
       <c r="B463" s="1" t="s">
         <v>2389</v>
       </c>
-      <c r="D463" s="55" t="s">
+      <c r="D463" s="54" t="s">
         <v>2390</v>
       </c>
       <c r="E463" s="1" t="s">
@@ -29613,7 +29610,7 @@
       <c r="B464" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="D464" s="55" t="s">
+      <c r="D464" s="54" t="s">
         <v>2394</v>
       </c>
       <c r="E464" s="1" t="s">
@@ -29627,7 +29624,7 @@
       <c r="B465" s="1" t="s">
         <v>2397</v>
       </c>
-      <c r="D465" s="55" t="s">
+      <c r="D465" s="54" t="s">
         <v>2398</v>
       </c>
       <c r="E465" s="1" t="s">
@@ -29641,7 +29638,7 @@
       <c r="B466" s="1" t="s">
         <v>2401</v>
       </c>
-      <c r="D466" s="55" t="s">
+      <c r="D466" s="54" t="s">
         <v>2402</v>
       </c>
       <c r="E466" s="1" t="s">
@@ -29661,7 +29658,7 @@
       <c r="C467" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="D467" s="55" t="s">
+      <c r="D467" s="54" t="s">
         <v>2408</v>
       </c>
       <c r="E467" s="1" t="s">
@@ -29675,7 +29672,7 @@
       <c r="B468" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="D468" s="55" t="s">
+      <c r="D468" s="54" t="s">
         <v>2412</v>
       </c>
       <c r="E468" s="1" t="s">
@@ -29692,7 +29689,7 @@
       <c r="B469" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="D469" s="55" t="s">
+      <c r="D469" s="54" t="s">
         <v>2417</v>
       </c>
       <c r="E469" s="1" t="s">
@@ -29709,7 +29706,7 @@
       <c r="B470" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="D470" s="55" t="s">
+      <c r="D470" s="54" t="s">
         <v>2422</v>
       </c>
       <c r="E470" s="1" t="s">
@@ -29723,7 +29720,7 @@
       <c r="B471" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="D471" s="55" t="s">
+      <c r="D471" s="54" t="s">
         <v>2426</v>
       </c>
       <c r="E471" s="1" t="s">
@@ -29740,7 +29737,7 @@
       <c r="B472" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="D472" s="55" t="s">
+      <c r="D472" s="54" t="s">
         <v>2431</v>
       </c>
       <c r="E472" s="1" t="s">
@@ -29754,7 +29751,7 @@
       <c r="B473" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="D473" s="55" t="s">
+      <c r="D473" s="54" t="s">
         <v>2435</v>
       </c>
       <c r="E473" s="1" t="s">
@@ -29768,7 +29765,7 @@
       <c r="B474" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="D474" s="55" t="s">
+      <c r="D474" s="54" t="s">
         <v>2438</v>
       </c>
       <c r="E474" s="1" t="s">
@@ -29785,7 +29782,7 @@
       <c r="B475" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="D475" s="55" t="s">
+      <c r="D475" s="54" t="s">
         <v>2443</v>
       </c>
       <c r="E475" s="1" t="s">
@@ -29802,7 +29799,7 @@
       <c r="B476" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="D476" s="55" t="s">
+      <c r="D476" s="54" t="s">
         <v>2448</v>
       </c>
       <c r="E476" s="1" t="s">
@@ -29816,7 +29813,7 @@
       <c r="B477" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="D477" s="55" t="s">
+      <c r="D477" s="54" t="s">
         <v>2452</v>
       </c>
       <c r="E477" s="1" t="s">
@@ -29830,7 +29827,7 @@
       <c r="B478" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="D478" s="55" t="s">
+      <c r="D478" s="54" t="s">
         <v>2456</v>
       </c>
       <c r="E478" s="1" t="s">
@@ -29844,7 +29841,7 @@
       <c r="B479" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="D479" s="55" t="s">
+      <c r="D479" s="54" t="s">
         <v>2460</v>
       </c>
       <c r="E479" s="1" t="s">
@@ -29858,7 +29855,7 @@
       <c r="B480" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="D480" s="55" t="s">
+      <c r="D480" s="54" t="s">
         <v>2464</v>
       </c>
       <c r="E480" s="1" t="s">
@@ -29872,7 +29869,7 @@
       <c r="B481" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="D481" s="55" t="s">
+      <c r="D481" s="54" t="s">
         <v>2468</v>
       </c>
       <c r="E481" s="1" t="s">
@@ -29889,7 +29886,7 @@
       <c r="B482" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="D482" s="55" t="s">
+      <c r="D482" s="54" t="s">
         <v>2473</v>
       </c>
       <c r="E482" s="1" t="s">
@@ -29903,7 +29900,7 @@
       <c r="B483" s="1" t="s">
         <v>2476</v>
       </c>
-      <c r="D483" s="55" t="s">
+      <c r="D483" s="54" t="s">
         <v>2477</v>
       </c>
       <c r="E483" s="1" t="s">
@@ -29920,7 +29917,7 @@
       <c r="B484" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="D484" s="55" t="s">
+      <c r="D484" s="54" t="s">
         <v>2482</v>
       </c>
       <c r="E484" s="1" t="s">
@@ -29934,7 +29931,7 @@
       <c r="B485" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="D485" s="55" t="s">
+      <c r="D485" s="54" t="s">
         <v>2486</v>
       </c>
       <c r="E485" s="1" t="s">
@@ -29948,7 +29945,7 @@
       <c r="B486" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="D486" s="55" t="s">
+      <c r="D486" s="54" t="s">
         <v>2490</v>
       </c>
       <c r="E486" s="1" t="s">
@@ -29962,7 +29959,7 @@
       <c r="B487" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="D487" s="55" t="s">
+      <c r="D487" s="54" t="s">
         <v>2494</v>
       </c>
       <c r="E487" s="1" t="s">
@@ -30028,7 +30025,7 @@
       <c r="A2" s="3" t="s">
         <v>2497</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>2498</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -30048,7 +30045,7 @@
       <c r="A3" s="3" t="s">
         <v>2501</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>2502</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -30068,7 +30065,7 @@
       <c r="A4" s="3" t="s">
         <v>2506</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>2507</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -30088,7 +30085,7 @@
       <c r="A5" s="3" t="s">
         <v>2511</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>2512</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -30108,7 +30105,7 @@
       <c r="A6" s="3" t="s">
         <v>2516</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>2517</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -30128,7 +30125,7 @@
       <c r="A7" s="3" t="s">
         <v>2521</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>2522</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -30148,7 +30145,7 @@
       <c r="A8" s="3" t="s">
         <v>2525</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>2526</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -30168,7 +30165,7 @@
       <c r="A9" s="3" t="s">
         <v>2529</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>2530</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -30182,7 +30179,7 @@
       <c r="A10" s="3" t="s">
         <v>2533</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>2534</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -30202,7 +30199,7 @@
       <c r="A11" s="3" t="s">
         <v>2539</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>2540</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -30222,7 +30219,7 @@
       <c r="A12" s="3" t="s">
         <v>2544</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>2545</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -30242,7 +30239,7 @@
       <c r="A13" s="3" t="s">
         <v>2549</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>2550</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -30262,7 +30259,7 @@
       <c r="A14" s="3" t="s">
         <v>2553</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>2554</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -30282,7 +30279,7 @@
       <c r="A15" s="3" t="s">
         <v>2558</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>2559</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -30302,7 +30299,7 @@
       <c r="A16" s="3" t="s">
         <v>2563</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>2564</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -30322,7 +30319,7 @@
       <c r="A17" s="3" t="s">
         <v>2568</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>2569</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -30342,7 +30339,7 @@
       <c r="A18" s="3" t="s">
         <v>2572</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>2573</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -30362,7 +30359,7 @@
       <c r="A19" s="3" t="s">
         <v>2577</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="50" t="s">
         <v>2578</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -30382,7 +30379,7 @@
       <c r="A20" s="3" t="s">
         <v>2581</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>2582</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -30402,7 +30399,7 @@
       <c r="A21" s="3" t="s">
         <v>2586</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>2587</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -30422,7 +30419,7 @@
       <c r="A22" s="3" t="s">
         <v>2591</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>2592</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -30442,7 +30439,7 @@
       <c r="A23" s="3" t="s">
         <v>2596</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>2597</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -30462,7 +30459,7 @@
       <c r="A24" s="3" t="s">
         <v>2600</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>2601</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -30482,7 +30479,7 @@
       <c r="A25" s="3" t="s">
         <v>2605</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>2606</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -30502,7 +30499,7 @@
       <c r="A26" s="3" t="s">
         <v>2610</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>2611</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -30522,7 +30519,7 @@
       <c r="A27" s="3" t="s">
         <v>2615</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>2616</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -30542,7 +30539,7 @@
       <c r="A28" s="3" t="s">
         <v>2621</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>2622</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -30562,7 +30559,7 @@
       <c r="A29" s="3" t="s">
         <v>2627</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>2628</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -30582,7 +30579,7 @@
       <c r="A30" s="3" t="s">
         <v>2631</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="50" t="s">
         <v>2632</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -30596,7 +30593,7 @@
       <c r="A31" s="3" t="s">
         <v>2635</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="50" t="s">
         <v>2636</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -30616,7 +30613,7 @@
       <c r="A32" s="3" t="s">
         <v>2640</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="50" t="s">
         <v>2641</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -30630,7 +30627,7 @@
       <c r="A33" s="3" t="s">
         <v>2644</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="50" t="s">
         <v>2645</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -30650,7 +30647,7 @@
       <c r="A34" s="3" t="s">
         <v>2649</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="50" t="s">
         <v>2650</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -30670,7 +30667,7 @@
       <c r="A35" s="3" t="s">
         <v>2655</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="50" t="s">
         <v>2656</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -30690,7 +30687,7 @@
       <c r="A36" s="3" t="s">
         <v>2660</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="50" t="s">
         <v>2661</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -30710,7 +30707,7 @@
       <c r="A37" s="3" t="s">
         <v>2664</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="50" t="s">
         <v>2665</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -30730,7 +30727,7 @@
       <c r="A38" s="3" t="s">
         <v>2668</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="50" t="s">
         <v>2669</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -30750,7 +30747,7 @@
       <c r="A39" s="3" t="s">
         <v>2673</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>2674</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -30770,7 +30767,7 @@
       <c r="A40" s="3" t="s">
         <v>2678</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="50" t="s">
         <v>2679</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -30790,7 +30787,7 @@
       <c r="A41" s="3" t="s">
         <v>2682</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="50" t="s">
         <v>2683</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -30810,7 +30807,7 @@
       <c r="A42" s="3" t="s">
         <v>2687</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="50" t="s">
         <v>2688</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -30830,7 +30827,7 @@
       <c r="A43" s="3" t="s">
         <v>2693</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="50" t="s">
         <v>2694</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -30850,7 +30847,7 @@
       <c r="A44" s="3" t="s">
         <v>2698</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="50" t="s">
         <v>2699</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -30870,7 +30867,7 @@
       <c r="A45" s="3" t="s">
         <v>2703</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="50" t="s">
         <v>2704</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -30890,7 +30887,7 @@
       <c r="A46" s="3" t="s">
         <v>2708</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="50" t="s">
         <v>2709</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -30910,7 +30907,7 @@
       <c r="A47" s="3" t="s">
         <v>2713</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="50" t="s">
         <v>2714</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -30930,7 +30927,7 @@
       <c r="A48" s="3" t="s">
         <v>2718</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="50" t="s">
         <v>2719</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -30944,7 +30941,7 @@
       <c r="A49" s="3" t="s">
         <v>2722</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="50" t="s">
         <v>2723</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -30958,7 +30955,7 @@
       <c r="A50" s="3" t="s">
         <v>2726</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="50" t="s">
         <v>2727</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -30978,7 +30975,7 @@
       <c r="A51" s="3" t="s">
         <v>2731</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="50" t="s">
         <v>2732</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -30998,7 +30995,7 @@
       <c r="A52" s="3" t="s">
         <v>2736</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="50" t="s">
         <v>2737</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -31018,7 +31015,7 @@
       <c r="A53" s="3" t="s">
         <v>2741</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="50" t="s">
         <v>2742</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -31038,7 +31035,7 @@
       <c r="A54" s="3" t="s">
         <v>2747</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="50" t="s">
         <v>2748</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -31058,7 +31055,7 @@
       <c r="A55" s="3" t="s">
         <v>2752</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="50" t="s">
         <v>2753</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -31078,7 +31075,7 @@
       <c r="A56" s="3" t="s">
         <v>2756</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="50" t="s">
         <v>2757</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -31098,7 +31095,7 @@
       <c r="A57" s="3" t="s">
         <v>2761</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="50" t="s">
         <v>2762</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -31118,7 +31115,7 @@
       <c r="A58" s="3" t="s">
         <v>2765</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="50" t="s">
         <v>2766</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -31138,7 +31135,7 @@
       <c r="A59" s="3" t="s">
         <v>2769</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="50" t="s">
         <v>2770</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -31158,7 +31155,7 @@
       <c r="A60" s="3" t="s">
         <v>2774</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="50" t="s">
         <v>2775</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -31178,7 +31175,7 @@
       <c r="A61" s="3" t="s">
         <v>2780</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="50" t="s">
         <v>2781</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -31198,7 +31195,7 @@
       <c r="A62" s="3" t="s">
         <v>2785</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="50" t="s">
         <v>2786</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -31218,7 +31215,7 @@
       <c r="A63" s="3" t="s">
         <v>2790</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="50" t="s">
         <v>2791</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -31238,7 +31235,7 @@
       <c r="A64" s="3" t="s">
         <v>2794</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="50" t="s">
         <v>2795</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -31258,7 +31255,7 @@
       <c r="A65" s="3" t="s">
         <v>2799</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="50" t="s">
         <v>2800</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -31278,7 +31275,7 @@
       <c r="A66" s="3" t="s">
         <v>2804</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="50" t="s">
         <v>2805</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -31298,7 +31295,7 @@
       <c r="A67" s="3" t="s">
         <v>2809</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="50" t="s">
         <v>2810</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -31318,7 +31315,7 @@
       <c r="A68" s="3" t="s">
         <v>2814</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="50" t="s">
         <v>2815</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -31338,7 +31335,7 @@
       <c r="A69" s="3" t="s">
         <v>2818</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="50" t="s">
         <v>2819</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -31358,7 +31355,7 @@
       <c r="A70" s="3" t="s">
         <v>2823</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="50" t="s">
         <v>2824</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -31378,7 +31375,7 @@
       <c r="A71" s="3" t="s">
         <v>2828</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="50" t="s">
         <v>2829</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -31398,7 +31395,7 @@
       <c r="A72" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="50" t="s">
         <v>2834</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -31418,7 +31415,7 @@
       <c r="A73" s="3" t="s">
         <v>2838</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="50" t="s">
         <v>2839</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -31438,7 +31435,7 @@
       <c r="A74" s="3" t="s">
         <v>2844</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="50" t="s">
         <v>2845</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -31458,7 +31455,7 @@
       <c r="A75" s="3" t="s">
         <v>2850</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="50" t="s">
         <v>2851</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -31478,7 +31475,7 @@
       <c r="A76" s="3" t="s">
         <v>2855</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="50" t="s">
         <v>2856</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -31498,7 +31495,7 @@
       <c r="A77" s="3" t="s">
         <v>2860</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="50" t="s">
         <v>2861</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -31518,7 +31515,7 @@
       <c r="A78" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="50" t="s">
         <v>2865</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -31538,7 +31535,7 @@
       <c r="A79" s="3" t="s">
         <v>2869</v>
       </c>
-      <c r="B79" s="51" t="s">
+      <c r="B79" s="50" t="s">
         <v>2870</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -31558,7 +31555,7 @@
       <c r="A80" s="3" t="s">
         <v>2874</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="50" t="s">
         <v>2875</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -31572,7 +31569,7 @@
       <c r="A81" s="3" t="s">
         <v>2878</v>
       </c>
-      <c r="B81" s="51" t="s">
+      <c r="B81" s="50" t="s">
         <v>2879</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -31592,7 +31589,7 @@
       <c r="A82" s="3" t="s">
         <v>2882</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="50" t="s">
         <v>2883</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -31612,7 +31609,7 @@
       <c r="A83" s="3" t="s">
         <v>2887</v>
       </c>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="50" t="s">
         <v>2888</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -31632,7 +31629,7 @@
       <c r="A84" s="3" t="s">
         <v>2892</v>
       </c>
-      <c r="B84" s="51" t="s">
+      <c r="B84" s="50" t="s">
         <v>2893</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -31652,7 +31649,7 @@
       <c r="A85" s="3" t="s">
         <v>2897</v>
       </c>
-      <c r="B85" s="51" t="s">
+      <c r="B85" s="50" t="s">
         <v>2898</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -31672,7 +31669,7 @@
       <c r="A86" s="3" t="s">
         <v>2901</v>
       </c>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="50" t="s">
         <v>2902</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -31692,7 +31689,7 @@
       <c r="A87" s="3" t="s">
         <v>2905</v>
       </c>
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="50" t="s">
         <v>2906</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -31712,7 +31709,7 @@
       <c r="A88" s="3" t="s">
         <v>2910</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="50" t="s">
         <v>2911</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -31732,7 +31729,7 @@
       <c r="A89" s="3" t="s">
         <v>2915</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="50" t="s">
         <v>2916</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -31752,7 +31749,7 @@
       <c r="A90" s="3" t="s">
         <v>2920</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="50" t="s">
         <v>2921</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -31772,7 +31769,7 @@
       <c r="A91" s="3" t="s">
         <v>2924</v>
       </c>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="50" t="s">
         <v>2925</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -31792,7 +31789,7 @@
       <c r="A92" s="3" t="s">
         <v>2928</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="50" t="s">
         <v>2929</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -31812,7 +31809,7 @@
       <c r="A93" s="3" t="s">
         <v>2932</v>
       </c>
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="50" t="s">
         <v>2933</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -31832,7 +31829,7 @@
       <c r="A94" s="3" t="s">
         <v>2937</v>
       </c>
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="50" t="s">
         <v>2938</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -31852,7 +31849,7 @@
       <c r="A95" s="3" t="s">
         <v>2942</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="50" t="s">
         <v>2943</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -31872,7 +31869,7 @@
       <c r="A96" s="3" t="s">
         <v>2947</v>
       </c>
-      <c r="B96" s="51" t="s">
+      <c r="B96" s="50" t="s">
         <v>2948</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -31892,7 +31889,7 @@
       <c r="A97" s="3" t="s">
         <v>2951</v>
       </c>
-      <c r="B97" s="51" t="s">
+      <c r="B97" s="50" t="s">
         <v>2952</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -31912,7 +31909,7 @@
       <c r="A98" s="3" t="s">
         <v>2956</v>
       </c>
-      <c r="B98" s="51" t="s">
+      <c r="B98" s="50" t="s">
         <v>2957</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -31926,7 +31923,7 @@
       <c r="A99" s="3" t="s">
         <v>2960</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="50" t="s">
         <v>2961</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -31946,7 +31943,7 @@
       <c r="A100" s="3" t="s">
         <v>2964</v>
       </c>
-      <c r="B100" s="51" t="s">
+      <c r="B100" s="50" t="s">
         <v>2965</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -31966,7 +31963,7 @@
       <c r="A101" s="3" t="s">
         <v>2970</v>
       </c>
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="50" t="s">
         <v>2971</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -31986,7 +31983,7 @@
       <c r="A102" s="3" t="s">
         <v>2975</v>
       </c>
-      <c r="B102" s="51" t="s">
+      <c r="B102" s="50" t="s">
         <v>2976</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -32006,7 +32003,7 @@
       <c r="A103" s="3" t="s">
         <v>2980</v>
       </c>
-      <c r="B103" s="51" t="s">
+      <c r="B103" s="50" t="s">
         <v>2981</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -32026,7 +32023,7 @@
       <c r="A104" s="3" t="s">
         <v>2985</v>
       </c>
-      <c r="B104" s="51" t="s">
+      <c r="B104" s="50" t="s">
         <v>2986</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -32046,7 +32043,7 @@
       <c r="A105" s="3" t="s">
         <v>2990</v>
       </c>
-      <c r="B105" s="51" t="s">
+      <c r="B105" s="50" t="s">
         <v>2991</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -32066,7 +32063,7 @@
       <c r="A106" s="3" t="s">
         <v>2996</v>
       </c>
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="50" t="s">
         <v>2997</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -32086,7 +32083,7 @@
       <c r="A107" s="3" t="s">
         <v>3000</v>
       </c>
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="50" t="s">
         <v>3001</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -32106,7 +32103,7 @@
       <c r="A108" s="3" t="s">
         <v>3005</v>
       </c>
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="50" t="s">
         <v>3006</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -32126,7 +32123,7 @@
       <c r="A109" s="3" t="s">
         <v>3010</v>
       </c>
-      <c r="B109" s="51" t="s">
+      <c r="B109" s="50" t="s">
         <v>3011</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -32146,7 +32143,7 @@
       <c r="A110" s="3" t="s">
         <v>3015</v>
       </c>
-      <c r="B110" s="51" t="s">
+      <c r="B110" s="50" t="s">
         <v>3016</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -32166,7 +32163,7 @@
       <c r="A111" s="3" t="s">
         <v>3020</v>
       </c>
-      <c r="B111" s="51" t="s">
+      <c r="B111" s="50" t="s">
         <v>3021</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -32186,7 +32183,7 @@
       <c r="A112" s="3" t="s">
         <v>3025</v>
       </c>
-      <c r="B112" s="51" t="s">
+      <c r="B112" s="50" t="s">
         <v>3026</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -32206,7 +32203,7 @@
       <c r="A113" s="3" t="s">
         <v>3030</v>
       </c>
-      <c r="B113" s="51" t="s">
+      <c r="B113" s="50" t="s">
         <v>3031</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -32226,7 +32223,7 @@
       <c r="A114" s="3" t="s">
         <v>3034</v>
       </c>
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="50" t="s">
         <v>3035</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -32246,7 +32243,7 @@
       <c r="A115" s="3" t="s">
         <v>3039</v>
       </c>
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="50" t="s">
         <v>3040</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -32266,7 +32263,7 @@
       <c r="A116" s="3" t="s">
         <v>3043</v>
       </c>
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="50" t="s">
         <v>3044</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -32286,7 +32283,7 @@
       <c r="A117" s="3" t="s">
         <v>3047</v>
       </c>
-      <c r="B117" s="51" t="s">
+      <c r="B117" s="50" t="s">
         <v>3048</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -32306,7 +32303,7 @@
       <c r="A118" s="3" t="s">
         <v>3051</v>
       </c>
-      <c r="B118" s="51" t="s">
+      <c r="B118" s="50" t="s">
         <v>3052</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -32326,7 +32323,7 @@
       <c r="A119" s="3" t="s">
         <v>3056</v>
       </c>
-      <c r="B119" s="51" t="s">
+      <c r="B119" s="50" t="s">
         <v>3057</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -32346,7 +32343,7 @@
       <c r="A120" s="3" t="s">
         <v>3061</v>
       </c>
-      <c r="B120" s="51" t="s">
+      <c r="B120" s="50" t="s">
         <v>3062</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -32366,7 +32363,7 @@
       <c r="A121" s="3" t="s">
         <v>3067</v>
       </c>
-      <c r="B121" s="51" t="s">
+      <c r="B121" s="50" t="s">
         <v>3068</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -32386,7 +32383,7 @@
       <c r="A122" s="3" t="s">
         <v>3072</v>
       </c>
-      <c r="B122" s="51" t="s">
+      <c r="B122" s="50" t="s">
         <v>3073</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -32406,7 +32403,7 @@
       <c r="A123" s="3" t="s">
         <v>3077</v>
       </c>
-      <c r="B123" s="51" t="s">
+      <c r="B123" s="50" t="s">
         <v>3078</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -32426,7 +32423,7 @@
       <c r="A124" s="3" t="s">
         <v>3081</v>
       </c>
-      <c r="B124" s="51" t="s">
+      <c r="B124" s="50" t="s">
         <v>3082</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -32446,7 +32443,7 @@
       <c r="A125" s="3" t="s">
         <v>3086</v>
       </c>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="50" t="s">
         <v>3087</v>
       </c>
       <c r="C125" s="3" t="s">
@@ -32466,7 +32463,7 @@
       <c r="A126" s="3" t="s">
         <v>3091</v>
       </c>
-      <c r="B126" s="51" t="s">
+      <c r="B126" s="50" t="s">
         <v>3092</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -32486,7 +32483,7 @@
       <c r="A127" s="3" t="s">
         <v>3095</v>
       </c>
-      <c r="B127" s="51" t="s">
+      <c r="B127" s="50" t="s">
         <v>3096</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -32506,7 +32503,7 @@
       <c r="A128" s="3" t="s">
         <v>3100</v>
       </c>
-      <c r="B128" s="51" t="s">
+      <c r="B128" s="50" t="s">
         <v>3101</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -32526,7 +32523,7 @@
       <c r="A129" s="3" t="s">
         <v>3104</v>
       </c>
-      <c r="B129" s="51" t="s">
+      <c r="B129" s="50" t="s">
         <v>3105</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -32546,7 +32543,7 @@
       <c r="A130" s="3" t="s">
         <v>3110</v>
       </c>
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="50" t="s">
         <v>3111</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -32566,7 +32563,7 @@
       <c r="A131" s="3" t="s">
         <v>3116</v>
       </c>
-      <c r="B131" s="51" t="s">
+      <c r="B131" s="50" t="s">
         <v>3117</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -32586,7 +32583,7 @@
       <c r="A132" s="3" t="s">
         <v>3120</v>
       </c>
-      <c r="B132" s="51" t="s">
+      <c r="B132" s="50" t="s">
         <v>3121</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -32606,7 +32603,7 @@
       <c r="A133" s="3" t="s">
         <v>3124</v>
       </c>
-      <c r="B133" s="51" t="s">
+      <c r="B133" s="50" t="s">
         <v>3125</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -32626,7 +32623,7 @@
       <c r="A134" s="3" t="s">
         <v>3129</v>
       </c>
-      <c r="B134" s="51" t="s">
+      <c r="B134" s="50" t="s">
         <v>3130</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -32646,7 +32643,7 @@
       <c r="A135" s="3" t="s">
         <v>3133</v>
       </c>
-      <c r="B135" s="51" t="s">
+      <c r="B135" s="50" t="s">
         <v>3134</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -32666,7 +32663,7 @@
       <c r="A136" s="3" t="s">
         <v>3137</v>
       </c>
-      <c r="B136" s="51" t="s">
+      <c r="B136" s="50" t="s">
         <v>3138</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -32686,7 +32683,7 @@
       <c r="A137" s="3" t="s">
         <v>3142</v>
       </c>
-      <c r="B137" s="51" t="s">
+      <c r="B137" s="50" t="s">
         <v>3143</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -32706,7 +32703,7 @@
       <c r="A138" s="3" t="s">
         <v>3147</v>
       </c>
-      <c r="B138" s="51" t="s">
+      <c r="B138" s="50" t="s">
         <v>3148</v>
       </c>
       <c r="C138" s="3" t="s">
@@ -32726,7 +32723,7 @@
       <c r="A139" s="3" t="s">
         <v>3151</v>
       </c>
-      <c r="B139" s="51" t="s">
+      <c r="B139" s="50" t="s">
         <v>3152</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -32746,7 +32743,7 @@
       <c r="A140" s="3" t="s">
         <v>3156</v>
       </c>
-      <c r="B140" s="51" t="s">
+      <c r="B140" s="50" t="s">
         <v>3157</v>
       </c>
       <c r="C140" s="3" t="s">
@@ -32766,7 +32763,7 @@
       <c r="A141" s="3" t="s">
         <v>3161</v>
       </c>
-      <c r="B141" s="51" t="s">
+      <c r="B141" s="50" t="s">
         <v>3162</v>
       </c>
       <c r="C141" s="3" t="s">
@@ -32786,7 +32783,7 @@
       <c r="A142" s="3" t="s">
         <v>3165</v>
       </c>
-      <c r="B142" s="51" t="s">
+      <c r="B142" s="50" t="s">
         <v>3166</v>
       </c>
       <c r="C142" s="3" t="s">
@@ -32806,7 +32803,7 @@
       <c r="A143" s="3" t="s">
         <v>3170</v>
       </c>
-      <c r="B143" s="51" t="s">
+      <c r="B143" s="50" t="s">
         <v>3171</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -32826,7 +32823,7 @@
       <c r="A144" s="3" t="s">
         <v>3176</v>
       </c>
-      <c r="B144" s="51" t="s">
+      <c r="B144" s="50" t="s">
         <v>3177</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -32846,7 +32843,7 @@
       <c r="A145" s="3" t="s">
         <v>3182</v>
       </c>
-      <c r="B145" s="51" t="s">
+      <c r="B145" s="50" t="s">
         <v>3183</v>
       </c>
       <c r="C145" s="3" t="s">
@@ -32866,7 +32863,7 @@
       <c r="A146" s="3" t="s">
         <v>3186</v>
       </c>
-      <c r="B146" s="51" t="s">
+      <c r="B146" s="50" t="s">
         <v>3187</v>
       </c>
       <c r="C146" s="3" t="s">
@@ -32886,7 +32883,7 @@
       <c r="A147" s="3" t="s">
         <v>3191</v>
       </c>
-      <c r="B147" s="51" t="s">
+      <c r="B147" s="50" t="s">
         <v>3192</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -32906,7 +32903,7 @@
       <c r="A148" s="3" t="s">
         <v>3196</v>
       </c>
-      <c r="B148" s="51" t="s">
+      <c r="B148" s="50" t="s">
         <v>3197</v>
       </c>
       <c r="C148" s="3" t="s">
@@ -32926,7 +32923,7 @@
       <c r="A149" s="3" t="s">
         <v>3200</v>
       </c>
-      <c r="B149" s="51" t="s">
+      <c r="B149" s="50" t="s">
         <v>3201</v>
       </c>
       <c r="C149" s="3" t="s">
@@ -32946,7 +32943,7 @@
       <c r="A150" s="3" t="s">
         <v>3205</v>
       </c>
-      <c r="B150" s="51" t="s">
+      <c r="B150" s="50" t="s">
         <v>3206</v>
       </c>
       <c r="C150" s="3" t="s">
@@ -32966,7 +32963,7 @@
       <c r="A151" s="3" t="s">
         <v>3209</v>
       </c>
-      <c r="B151" s="51" t="s">
+      <c r="B151" s="50" t="s">
         <v>3210</v>
       </c>
       <c r="C151" s="3" t="s">
@@ -32986,7 +32983,7 @@
       <c r="A152" s="3" t="s">
         <v>3213</v>
       </c>
-      <c r="B152" s="51" t="s">
+      <c r="B152" s="50" t="s">
         <v>3214</v>
       </c>
       <c r="C152" s="3" t="s">
@@ -33006,7 +33003,7 @@
       <c r="A153" s="3" t="s">
         <v>3218</v>
       </c>
-      <c r="B153" s="51" t="s">
+      <c r="B153" s="50" t="s">
         <v>3219</v>
       </c>
       <c r="C153" s="3" t="s">
@@ -33026,7 +33023,7 @@
       <c r="A154" s="3" t="s">
         <v>3221</v>
       </c>
-      <c r="B154" s="51" t="s">
+      <c r="B154" s="50" t="s">
         <v>3222</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -33046,7 +33043,7 @@
       <c r="A155" s="3" t="s">
         <v>3226</v>
       </c>
-      <c r="B155" s="51" t="s">
+      <c r="B155" s="50" t="s">
         <v>3227</v>
       </c>
       <c r="C155" s="3" t="s">
@@ -33066,7 +33063,7 @@
       <c r="A156" s="3" t="s">
         <v>3231</v>
       </c>
-      <c r="B156" s="51" t="s">
+      <c r="B156" s="50" t="s">
         <v>3232</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -33086,7 +33083,7 @@
       <c r="A157" s="3" t="s">
         <v>3236</v>
       </c>
-      <c r="B157" s="51" t="s">
+      <c r="B157" s="50" t="s">
         <v>3237</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -33106,7 +33103,7 @@
       <c r="A158" s="3" t="s">
         <v>3241</v>
       </c>
-      <c r="B158" s="51" t="s">
+      <c r="B158" s="50" t="s">
         <v>3242</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -33126,7 +33123,7 @@
       <c r="A159" s="3" t="s">
         <v>3245</v>
       </c>
-      <c r="B159" s="51" t="s">
+      <c r="B159" s="50" t="s">
         <v>3246</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -33146,7 +33143,7 @@
       <c r="A160" s="3" t="s">
         <v>3249</v>
       </c>
-      <c r="B160" s="51" t="s">
+      <c r="B160" s="50" t="s">
         <v>3250</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -33166,7 +33163,7 @@
       <c r="A161" s="3" t="s">
         <v>3254</v>
       </c>
-      <c r="B161" s="51" t="s">
+      <c r="B161" s="50" t="s">
         <v>3255</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -33186,7 +33183,7 @@
       <c r="A162" s="3" t="s">
         <v>3259</v>
       </c>
-      <c r="B162" s="51" t="s">
+      <c r="B162" s="50" t="s">
         <v>3260</v>
       </c>
       <c r="C162" s="3" t="s">
@@ -33206,7 +33203,7 @@
       <c r="A163" s="3" t="s">
         <v>3264</v>
       </c>
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="50" t="s">
         <v>3265</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -33226,7 +33223,7 @@
       <c r="A164" s="3" t="s">
         <v>3270</v>
       </c>
-      <c r="B164" s="51" t="s">
+      <c r="B164" s="50" t="s">
         <v>3271</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -33246,7 +33243,7 @@
       <c r="A165" s="3" t="s">
         <v>3275</v>
       </c>
-      <c r="B165" s="51" t="s">
+      <c r="B165" s="50" t="s">
         <v>3276</v>
       </c>
       <c r="C165" s="3" t="s">
@@ -33266,7 +33263,7 @@
       <c r="A166" s="3" t="s">
         <v>3280</v>
       </c>
-      <c r="B166" s="51" t="s">
+      <c r="B166" s="50" t="s">
         <v>3281</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -33286,7 +33283,7 @@
       <c r="A167" s="3" t="s">
         <v>3284</v>
       </c>
-      <c r="B167" s="51" t="s">
+      <c r="B167" s="50" t="s">
         <v>3285</v>
       </c>
       <c r="C167" s="3" t="s">
@@ -33306,7 +33303,7 @@
       <c r="A168" s="3" t="s">
         <v>3288</v>
       </c>
-      <c r="B168" s="51" t="s">
+      <c r="B168" s="50" t="s">
         <v>3289</v>
       </c>
       <c r="C168" s="3" t="s">
@@ -33326,7 +33323,7 @@
       <c r="A169" s="3" t="s">
         <v>3293</v>
       </c>
-      <c r="B169" s="51" t="s">
+      <c r="B169" s="50" t="s">
         <v>3294</v>
       </c>
       <c r="C169" s="3" t="s">
@@ -33346,7 +33343,7 @@
       <c r="A170" s="3" t="s">
         <v>3299</v>
       </c>
-      <c r="B170" s="51" t="s">
+      <c r="B170" s="50" t="s">
         <v>3300</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -33366,7 +33363,7 @@
       <c r="A171" s="3" t="s">
         <v>3303</v>
       </c>
-      <c r="B171" s="51" t="s">
+      <c r="B171" s="50" t="s">
         <v>3304</v>
       </c>
       <c r="C171" s="3" t="s">
@@ -33386,7 +33383,7 @@
       <c r="A172" s="3" t="s">
         <v>3308</v>
       </c>
-      <c r="B172" s="51" t="s">
+      <c r="B172" s="50" t="s">
         <v>3309</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -33406,7 +33403,7 @@
       <c r="A173" s="3" t="s">
         <v>3312</v>
       </c>
-      <c r="B173" s="51" t="s">
+      <c r="B173" s="50" t="s">
         <v>3313</v>
       </c>
       <c r="C173" s="3" t="s">
@@ -33426,7 +33423,7 @@
       <c r="A174" s="3" t="s">
         <v>3317</v>
       </c>
-      <c r="B174" s="51" t="s">
+      <c r="B174" s="50" t="s">
         <v>3318</v>
       </c>
       <c r="C174" s="3" t="s">
@@ -33446,7 +33443,7 @@
       <c r="A175" s="3" t="s">
         <v>3321</v>
       </c>
-      <c r="B175" s="51" t="s">
+      <c r="B175" s="50" t="s">
         <v>3322</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -33466,7 +33463,7 @@
       <c r="A176" s="3" t="s">
         <v>3326</v>
       </c>
-      <c r="B176" s="51" t="s">
+      <c r="B176" s="50" t="s">
         <v>3327</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -33486,7 +33483,7 @@
       <c r="A177" s="3" t="s">
         <v>3331</v>
       </c>
-      <c r="B177" s="51" t="s">
+      <c r="B177" s="50" t="s">
         <v>3332</v>
       </c>
       <c r="C177" s="3" t="s">
@@ -33506,7 +33503,7 @@
       <c r="A178" s="3" t="s">
         <v>3335</v>
       </c>
-      <c r="B178" s="51" t="s">
+      <c r="B178" s="50" t="s">
         <v>3336</v>
       </c>
       <c r="C178" s="3" t="s">
@@ -33526,7 +33523,7 @@
       <c r="A179" s="3" t="s">
         <v>3340</v>
       </c>
-      <c r="B179" s="51" t="s">
+      <c r="B179" s="50" t="s">
         <v>3341</v>
       </c>
       <c r="C179" s="3" t="s">
@@ -33546,7 +33543,7 @@
       <c r="A180" s="3" t="s">
         <v>3344</v>
       </c>
-      <c r="B180" s="51" t="s">
+      <c r="B180" s="50" t="s">
         <v>3345</v>
       </c>
       <c r="C180" s="3" t="s">
@@ -33566,7 +33563,7 @@
       <c r="A181" s="3" t="s">
         <v>3349</v>
       </c>
-      <c r="B181" s="51" t="s">
+      <c r="B181" s="50" t="s">
         <v>3350</v>
       </c>
       <c r="C181" s="3" t="s">
@@ -33586,7 +33583,7 @@
       <c r="A182" s="3" t="s">
         <v>3355</v>
       </c>
-      <c r="B182" s="51" t="s">
+      <c r="B182" s="50" t="s">
         <v>3356</v>
       </c>
       <c r="C182" s="3" t="s">
@@ -33606,7 +33603,7 @@
       <c r="A183" s="3" t="s">
         <v>3359</v>
       </c>
-      <c r="B183" s="51" t="s">
+      <c r="B183" s="50" t="s">
         <v>3360</v>
       </c>
       <c r="C183" s="3" t="s">
@@ -33626,7 +33623,7 @@
       <c r="A184" s="3" t="s">
         <v>3363</v>
       </c>
-      <c r="B184" s="51" t="s">
+      <c r="B184" s="50" t="s">
         <v>3364</v>
       </c>
       <c r="C184" s="3" t="s">
@@ -33646,7 +33643,7 @@
       <c r="A185" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="B185" s="51" t="s">
+      <c r="B185" s="50" t="s">
         <v>3368</v>
       </c>
       <c r="C185" s="3" t="s">
@@ -33666,7 +33663,7 @@
       <c r="A186" s="3" t="s">
         <v>3372</v>
       </c>
-      <c r="B186" s="51" t="s">
+      <c r="B186" s="50" t="s">
         <v>3373</v>
       </c>
       <c r="C186" s="3" t="s">
@@ -33686,7 +33683,7 @@
       <c r="A187" s="3" t="s">
         <v>3377</v>
       </c>
-      <c r="B187" s="51" t="s">
+      <c r="B187" s="50" t="s">
         <v>3378</v>
       </c>
       <c r="C187" s="3" t="s">
@@ -33706,7 +33703,7 @@
       <c r="A188" s="3" t="s">
         <v>3382</v>
       </c>
-      <c r="B188" s="51" t="s">
+      <c r="B188" s="50" t="s">
         <v>3383</v>
       </c>
       <c r="C188" s="3" t="s">
@@ -33726,7 +33723,7 @@
       <c r="A189" s="3" t="s">
         <v>3387</v>
       </c>
-      <c r="B189" s="51" t="s">
+      <c r="B189" s="50" t="s">
         <v>3388</v>
       </c>
       <c r="C189" s="3" t="s">
@@ -33746,7 +33743,7 @@
       <c r="A190" s="3" t="s">
         <v>3391</v>
       </c>
-      <c r="B190" s="51" t="s">
+      <c r="B190" s="50" t="s">
         <v>3392</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -33766,7 +33763,7 @@
       <c r="A191" s="3" t="s">
         <v>3395</v>
       </c>
-      <c r="B191" s="51" t="s">
+      <c r="B191" s="50" t="s">
         <v>3396</v>
       </c>
       <c r="C191" s="3" t="s">
@@ -33786,7 +33783,7 @@
       <c r="A192" s="3" t="s">
         <v>3400</v>
       </c>
-      <c r="B192" s="51" t="s">
+      <c r="B192" s="50" t="s">
         <v>3401</v>
       </c>
       <c r="C192" s="3" t="s">
@@ -33806,7 +33803,7 @@
       <c r="A193" s="3" t="s">
         <v>3406</v>
       </c>
-      <c r="B193" s="51" t="s">
+      <c r="B193" s="50" t="s">
         <v>3407</v>
       </c>
       <c r="C193" s="3" t="s">
@@ -33826,7 +33823,7 @@
       <c r="A194" s="3" t="s">
         <v>3411</v>
       </c>
-      <c r="B194" s="51" t="s">
+      <c r="B194" s="50" t="s">
         <v>3412</v>
       </c>
       <c r="C194" s="3" t="s">
@@ -33846,7 +33843,7 @@
       <c r="A195" s="3" t="s">
         <v>3416</v>
       </c>
-      <c r="B195" s="51" t="s">
+      <c r="B195" s="50" t="s">
         <v>3417</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -33866,7 +33863,7 @@
       <c r="A196" s="3" t="s">
         <v>3421</v>
       </c>
-      <c r="B196" s="51" t="s">
+      <c r="B196" s="50" t="s">
         <v>3422</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -33886,7 +33883,7 @@
       <c r="A197" s="3" t="s">
         <v>3426</v>
       </c>
-      <c r="B197" s="51" t="s">
+      <c r="B197" s="50" t="s">
         <v>3427</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -33906,7 +33903,7 @@
       <c r="A198" s="3" t="s">
         <v>3431</v>
       </c>
-      <c r="B198" s="51" t="s">
+      <c r="B198" s="50" t="s">
         <v>3432</v>
       </c>
       <c r="C198" s="3" t="s">
@@ -33920,7 +33917,7 @@
       <c r="A199" s="3" t="s">
         <v>3435</v>
       </c>
-      <c r="B199" s="51" t="s">
+      <c r="B199" s="50" t="s">
         <v>3436</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -33940,7 +33937,7 @@
       <c r="A200" s="3" t="s">
         <v>3441</v>
       </c>
-      <c r="B200" s="51" t="s">
+      <c r="B200" s="50" t="s">
         <v>3442</v>
       </c>
       <c r="C200" s="3" t="s">
@@ -33960,7 +33957,7 @@
       <c r="A201" s="3" t="s">
         <v>3446</v>
       </c>
-      <c r="B201" s="51" t="s">
+      <c r="B201" s="50" t="s">
         <v>3447</v>
       </c>
       <c r="C201" s="3" t="s">
@@ -33980,7 +33977,7 @@
       <c r="A202" s="3" t="s">
         <v>3451</v>
       </c>
-      <c r="B202" s="51" t="s">
+      <c r="B202" s="50" t="s">
         <v>3452</v>
       </c>
       <c r="C202" s="3" t="s">
@@ -34000,7 +33997,7 @@
       <c r="A203" s="3" t="s">
         <v>3455</v>
       </c>
-      <c r="B203" s="51" t="s">
+      <c r="B203" s="50" t="s">
         <v>3456</v>
       </c>
       <c r="C203" s="3" t="s">
@@ -34020,7 +34017,7 @@
       <c r="A204" s="3" t="s">
         <v>3461</v>
       </c>
-      <c r="B204" s="51" t="s">
+      <c r="B204" s="50" t="s">
         <v>3462</v>
       </c>
       <c r="C204" s="3" t="s">
@@ -34040,7 +34037,7 @@
       <c r="A205" s="3" t="s">
         <v>3467</v>
       </c>
-      <c r="B205" s="51" t="s">
+      <c r="B205" s="50" t="s">
         <v>3468</v>
       </c>
       <c r="C205" s="3" t="s">
@@ -34060,7 +34057,7 @@
       <c r="A206" s="3" t="s">
         <v>3473</v>
       </c>
-      <c r="B206" s="51" t="s">
+      <c r="B206" s="50" t="s">
         <v>3474</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -34080,7 +34077,7 @@
       <c r="A207" s="3" t="s">
         <v>3479</v>
       </c>
-      <c r="B207" s="51" t="s">
+      <c r="B207" s="50" t="s">
         <v>3480</v>
       </c>
       <c r="C207" s="3" t="s">
@@ -34100,7 +34097,7 @@
       <c r="A208" s="3" t="s">
         <v>3485</v>
       </c>
-      <c r="B208" s="51" t="s">
+      <c r="B208" s="50" t="s">
         <v>3486</v>
       </c>
       <c r="C208" s="3" t="s">
@@ -34120,7 +34117,7 @@
       <c r="A209" s="3" t="s">
         <v>3491</v>
       </c>
-      <c r="B209" s="51" t="s">
+      <c r="B209" s="50" t="s">
         <v>3492</v>
       </c>
       <c r="C209" s="3" t="s">
@@ -34140,7 +34137,7 @@
       <c r="A210" s="3" t="s">
         <v>3497</v>
       </c>
-      <c r="B210" s="51" t="s">
+      <c r="B210" s="50" t="s">
         <v>3498</v>
       </c>
       <c r="C210" s="3" t="s">
@@ -34160,7 +34157,7 @@
       <c r="A211" s="3" t="s">
         <v>3502</v>
       </c>
-      <c r="B211" s="51" t="s">
+      <c r="B211" s="50" t="s">
         <v>3503</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -34180,7 +34177,7 @@
       <c r="A212" s="3" t="s">
         <v>3506</v>
       </c>
-      <c r="B212" s="51" t="s">
+      <c r="B212" s="50" t="s">
         <v>3507</v>
       </c>
       <c r="C212" s="3" t="s">
@@ -34200,7 +34197,7 @@
       <c r="A213" s="3" t="s">
         <v>3512</v>
       </c>
-      <c r="B213" s="51" t="s">
+      <c r="B213" s="50" t="s">
         <v>3513</v>
       </c>
       <c r="C213" s="3" t="s">
@@ -34220,7 +34217,7 @@
       <c r="A214" s="3" t="s">
         <v>3516</v>
       </c>
-      <c r="B214" s="51" t="s">
+      <c r="B214" s="50" t="s">
         <v>3517</v>
       </c>
       <c r="C214" s="3" t="s">
@@ -34240,7 +34237,7 @@
       <c r="A215" s="3" t="s">
         <v>3521</v>
       </c>
-      <c r="B215" s="51" t="s">
+      <c r="B215" s="50" t="s">
         <v>3522</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -34260,7 +34257,7 @@
       <c r="A216" s="3" t="s">
         <v>3526</v>
       </c>
-      <c r="B216" s="51" t="s">
+      <c r="B216" s="50" t="s">
         <v>3527</v>
       </c>
       <c r="C216" s="3" t="s">
@@ -34280,7 +34277,7 @@
       <c r="A217" s="3" t="s">
         <v>3532</v>
       </c>
-      <c r="B217" s="51" t="s">
+      <c r="B217" s="50" t="s">
         <v>3533</v>
       </c>
       <c r="C217" s="3" t="s">
@@ -34300,7 +34297,7 @@
       <c r="A218" s="3" t="s">
         <v>3538</v>
       </c>
-      <c r="B218" s="51" t="s">
+      <c r="B218" s="50" t="s">
         <v>3539</v>
       </c>
       <c r="C218" s="3" t="s">
@@ -34314,7 +34311,7 @@
       <c r="A219" s="3" t="s">
         <v>3542</v>
       </c>
-      <c r="B219" s="51" t="s">
+      <c r="B219" s="50" t="s">
         <v>3543</v>
       </c>
       <c r="C219" s="3" t="s">
@@ -34334,7 +34331,7 @@
       <c r="A220" s="3" t="s">
         <v>3547</v>
       </c>
-      <c r="B220" s="51" t="s">
+      <c r="B220" s="50" t="s">
         <v>3548</v>
       </c>
       <c r="C220" s="3" t="s">
@@ -34354,7 +34351,7 @@
       <c r="A221" s="3" t="s">
         <v>3553</v>
       </c>
-      <c r="B221" s="51" t="s">
+      <c r="B221" s="50" t="s">
         <v>3554</v>
       </c>
       <c r="C221" s="3" t="s">
@@ -34374,7 +34371,7 @@
       <c r="A222" s="3" t="s">
         <v>3558</v>
       </c>
-      <c r="B222" s="51" t="s">
+      <c r="B222" s="50" t="s">
         <v>3559</v>
       </c>
       <c r="C222" s="3" t="s">
@@ -34394,7 +34391,7 @@
       <c r="A223" s="3" t="s">
         <v>3562</v>
       </c>
-      <c r="B223" s="51" t="s">
+      <c r="B223" s="50" t="s">
         <v>3563</v>
       </c>
       <c r="C223" s="3" t="s">
@@ -34414,7 +34411,7 @@
       <c r="A224" s="3" t="s">
         <v>3566</v>
       </c>
-      <c r="B224" s="51" t="s">
+      <c r="B224" s="50" t="s">
         <v>3567</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -34434,7 +34431,7 @@
       <c r="A225" s="3" t="s">
         <v>3569</v>
       </c>
-      <c r="B225" s="51" t="s">
+      <c r="B225" s="50" t="s">
         <v>3570</v>
       </c>
       <c r="C225" s="3" t="s">
@@ -34454,7 +34451,7 @@
       <c r="A226" s="3" t="s">
         <v>3573</v>
       </c>
-      <c r="B226" s="51" t="s">
+      <c r="B226" s="50" t="s">
         <v>3574</v>
       </c>
       <c r="C226" s="3" t="s">
@@ -34474,7 +34471,7 @@
       <c r="A227" s="3" t="s">
         <v>3579</v>
       </c>
-      <c r="B227" s="51" t="s">
+      <c r="B227" s="50" t="s">
         <v>3580</v>
       </c>
       <c r="C227" s="3" t="s">
@@ -34494,7 +34491,7 @@
       <c r="A228" s="3" t="s">
         <v>3584</v>
       </c>
-      <c r="B228" s="51" t="s">
+      <c r="B228" s="50" t="s">
         <v>3585</v>
       </c>
       <c r="C228" s="3" t="s">
@@ -34514,7 +34511,7 @@
       <c r="A229" s="3" t="s">
         <v>3589</v>
       </c>
-      <c r="B229" s="51" t="s">
+      <c r="B229" s="50" t="s">
         <v>3590</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -34534,7 +34531,7 @@
       <c r="A230" s="3" t="s">
         <v>3594</v>
       </c>
-      <c r="B230" s="51" t="s">
+      <c r="B230" s="50" t="s">
         <v>3595</v>
       </c>
       <c r="C230" s="3" t="s">
@@ -34554,7 +34551,7 @@
       <c r="A231" s="3" t="s">
         <v>3600</v>
       </c>
-      <c r="B231" s="51" t="s">
+      <c r="B231" s="50" t="s">
         <v>3601</v>
       </c>
       <c r="C231" s="3" t="s">
@@ -34574,7 +34571,7 @@
       <c r="A232" s="3" t="s">
         <v>3603</v>
       </c>
-      <c r="B232" s="51" t="s">
+      <c r="B232" s="50" t="s">
         <v>3604</v>
       </c>
       <c r="C232" s="3" t="s">
@@ -34588,7 +34585,7 @@
       <c r="A233" s="3" t="s">
         <v>3607</v>
       </c>
-      <c r="B233" s="51" t="s">
+      <c r="B233" s="50" t="s">
         <v>3608</v>
       </c>
       <c r="C233" s="3" t="s">
@@ -34608,7 +34605,7 @@
       <c r="A234" s="3" t="s">
         <v>3613</v>
       </c>
-      <c r="B234" s="51" t="s">
+      <c r="B234" s="50" t="s">
         <v>3614</v>
       </c>
       <c r="C234" s="3" t="s">
@@ -34628,7 +34625,7 @@
       <c r="A235" s="3" t="s">
         <v>3619</v>
       </c>
-      <c r="B235" s="51" t="s">
+      <c r="B235" s="50" t="s">
         <v>3620</v>
       </c>
       <c r="C235" s="3" t="s">
@@ -34648,7 +34645,7 @@
       <c r="A236" s="3" t="s">
         <v>3624</v>
       </c>
-      <c r="B236" s="51" t="s">
+      <c r="B236" s="50" t="s">
         <v>3625</v>
       </c>
       <c r="C236" s="3" t="s">
@@ -34668,7 +34665,7 @@
       <c r="A237" s="3" t="s">
         <v>3629</v>
       </c>
-      <c r="B237" s="51" t="s">
+      <c r="B237" s="50" t="s">
         <v>3630</v>
       </c>
       <c r="C237" s="3" t="s">
@@ -34688,7 +34685,7 @@
       <c r="A238" s="3" t="s">
         <v>3633</v>
       </c>
-      <c r="B238" s="51" t="s">
+      <c r="B238" s="50" t="s">
         <v>3634</v>
       </c>
       <c r="C238" s="3" t="s">
@@ -34708,7 +34705,7 @@
       <c r="A239" s="3" t="s">
         <v>3638</v>
       </c>
-      <c r="B239" s="51" t="s">
+      <c r="B239" s="50" t="s">
         <v>3639</v>
       </c>
       <c r="C239" s="3" t="s">
@@ -34728,7 +34725,7 @@
       <c r="A240" s="3" t="s">
         <v>3642</v>
       </c>
-      <c r="B240" s="51" t="s">
+      <c r="B240" s="50" t="s">
         <v>3643</v>
       </c>
       <c r="C240" s="3" t="s">
@@ -34748,7 +34745,7 @@
       <c r="A241" s="3" t="s">
         <v>3647</v>
       </c>
-      <c r="B241" s="51" t="s">
+      <c r="B241" s="50" t="s">
         <v>3648</v>
       </c>
       <c r="C241" s="3" t="s">
@@ -34768,7 +34765,7 @@
       <c r="A242" s="3" t="s">
         <v>3651</v>
       </c>
-      <c r="B242" s="51" t="s">
+      <c r="B242" s="50" t="s">
         <v>3652</v>
       </c>
       <c r="C242" s="3" t="s">
@@ -34788,7 +34785,7 @@
       <c r="A243" s="3" t="s">
         <v>3657</v>
       </c>
-      <c r="B243" s="51" t="s">
+      <c r="B243" s="50" t="s">
         <v>3658</v>
       </c>
       <c r="C243" s="3" t="s">
@@ -34808,7 +34805,7 @@
       <c r="A244" s="3" t="s">
         <v>3663</v>
       </c>
-      <c r="B244" s="51" t="s">
+      <c r="B244" s="50" t="s">
         <v>3664</v>
       </c>
       <c r="C244" s="3" t="s">
@@ -34828,7 +34825,7 @@
       <c r="A245" s="3" t="s">
         <v>3668</v>
       </c>
-      <c r="B245" s="51" t="s">
+      <c r="B245" s="50" t="s">
         <v>3669</v>
       </c>
       <c r="C245" s="3" t="s">
@@ -34848,7 +34845,7 @@
       <c r="A246" s="3" t="s">
         <v>3674</v>
       </c>
-      <c r="B246" s="51" t="s">
+      <c r="B246" s="50" t="s">
         <v>3675</v>
       </c>
       <c r="C246" s="3" t="s">
@@ -34868,7 +34865,7 @@
       <c r="A247" s="3" t="s">
         <v>3679</v>
       </c>
-      <c r="B247" s="51" t="s">
+      <c r="B247" s="50" t="s">
         <v>3680</v>
       </c>
       <c r="C247" s="3" t="s">
@@ -34888,7 +34885,7 @@
       <c r="A248" s="3" t="s">
         <v>3684</v>
       </c>
-      <c r="B248" s="51" t="s">
+      <c r="B248" s="50" t="s">
         <v>3685</v>
       </c>
       <c r="C248" s="3" t="s">
@@ -34908,7 +34905,7 @@
       <c r="A249" s="3" t="s">
         <v>3689</v>
       </c>
-      <c r="B249" s="51" t="s">
+      <c r="B249" s="50" t="s">
         <v>3690</v>
       </c>
       <c r="C249" s="3" t="s">
@@ -34928,7 +34925,7 @@
       <c r="A250" s="3" t="s">
         <v>3693</v>
       </c>
-      <c r="B250" s="51" t="s">
+      <c r="B250" s="50" t="s">
         <v>3694</v>
       </c>
       <c r="C250" s="3" t="s">
@@ -35223,26 +35220,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>3698</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>3699</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>3700</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>3701</v>
       </c>
     </row>
